--- a/scripts/Monitoramento/inputs/0 - Expansão/0 - Monitoramento Form 1, 2 e 3.xlsx
+++ b/scripts/Monitoramento/inputs/0 - Expansão/0 - Monitoramento Form 1, 2 e 3.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29602"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_F272BB331A0389D8C19CF12BD89B5E6160529179" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{706F8712-6A49-45F2-9E9D-F1DD34519BC3}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_03EF8011DD2E3DB44B6FEC828029A8DA9F7F5A9B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2F014250-57FE-4A2C-8748-ABF63B3554FD}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1357,6 +1357,9 @@
     <xf numFmtId="0" fontId="9" fillId="22" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="23" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1430,9 +1433,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="20" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2172,10 +2172,10 @@
       <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="25" t="s">
+      <c r="L1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="25" t="s">
+      <c r="M1" s="26" t="s">
         <v>8</v>
       </c>
       <c r="O1" s="2" t="s">
@@ -2204,49 +2204,49 @@
       <c r="AK1" s="46"/>
     </row>
     <row r="2" spans="1:37" ht="15.75" customHeight="1">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="26">
+      <c r="B2" s="27">
         <f ca="1">COUNTIF(AE2:AE51,"Enviado")</f>
         <v>49</v>
       </c>
-      <c r="C2" s="27">
+      <c r="C2" s="28">
         <f ca="1">B2/SUM($B2,$D2,$F2,$H2)</f>
         <v>0.98</v>
       </c>
-      <c r="D2" s="26">
+      <c r="D2" s="27">
         <f ca="1">COUNTIF(AE2:AE51,"Atrasado")</f>
         <v>0</v>
       </c>
-      <c r="E2" s="27">
+      <c r="E2" s="28">
         <f ca="1">D2/SUM($B2,$D2,$F2,$H2)</f>
         <v>0</v>
       </c>
-      <c r="F2" s="26">
+      <c r="F2" s="27">
         <f ca="1">COUNTIF(AE2:AE51,"Sem Técnico")</f>
         <v>0</v>
       </c>
-      <c r="G2" s="27">
+      <c r="G2" s="28">
         <f ca="1">F2/SUM($B2,$D2,$F2,$H2)</f>
         <v>0</v>
       </c>
-      <c r="H2" s="26">
+      <c r="H2" s="27">
         <f ca="1">COUNTIF(AE2:AE51,"Duplicado")</f>
         <v>1</v>
       </c>
-      <c r="I2" s="27">
+      <c r="I2" s="28">
         <f ca="1">H2/SUM($B2,$D2,$F2,$H2)</f>
         <v>0.02</v>
       </c>
-      <c r="J2" s="28">
+      <c r="J2" s="29">
         <f ca="1">SUM(B2,D2,F2,H2)</f>
         <v>50</v>
       </c>
-      <c r="L2" s="29" t="s">
+      <c r="L2" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="20" t="s">
+      <c r="M2" s="21" t="s">
         <v>18</v>
       </c>
       <c r="O2" s="4" t="s">
@@ -2264,75 +2264,75 @@
         <f ca="1">F2</f>
         <v>0</v>
       </c>
-      <c r="AD2" s="30" t="str">
+      <c r="AD2" s="31" t="str">
         <f t="array" aca="1" ref="AD2:AD52" ca="1">_xlfn.UNIQUE(INDIRECT("'Form 1 - Município'!B2:B70"))</f>
         <v>Alto Paraná</v>
       </c>
-      <c r="AE2" s="30" t="str">
+      <c r="AE2" s="31" t="str">
         <f ca="1">VLOOKUP(AD2,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AG2" s="30" t="str">
+      <c r="AG2" s="31" t="str">
         <f t="array" aca="1" ref="AG2:AG52" ca="1">_xlfn.UNIQUE(INDIRECT("'Form 2 - UVR'!B2:B70"))</f>
         <v>Alto Paraná</v>
       </c>
-      <c r="AH2" s="30" t="str">
+      <c r="AH2" s="31" t="str">
         <f ca="1">VLOOKUP(AG2,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ2" s="30" t="str">
+      <c r="AJ2" s="31" t="str">
         <f t="array" aca="1" ref="AJ2:AJ52" ca="1">_xlfn.UNIQUE(INDIRECT("'Form 3 - Empreendimento'!B2:B70"))</f>
         <v>Alto Paraná</v>
       </c>
-      <c r="AK2" s="30" t="str">
+      <c r="AK2" s="31" t="str">
         <f ca="1">VLOOKUP(AJ2,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
     </row>
     <row r="3" spans="1:37" ht="15.75" customHeight="1">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="26">
+      <c r="B3" s="27">
         <f ca="1">COUNTIF(AH2:AH51,"Enviado")</f>
         <v>43</v>
       </c>
-      <c r="C3" s="27">
+      <c r="C3" s="28">
         <f ca="1">B3/SUM($B3,$D3,$F3,$H3)</f>
         <v>0.86</v>
       </c>
-      <c r="D3" s="26">
+      <c r="D3" s="27">
         <f ca="1">COUNTIF(AH2:AH51,"Atrasado")</f>
         <v>0</v>
       </c>
-      <c r="E3" s="27">
+      <c r="E3" s="28">
         <f ca="1">D3/SUM($B3,$D3,$F3,$H3)</f>
         <v>0</v>
       </c>
-      <c r="F3" s="26">
+      <c r="F3" s="27">
         <f ca="1">COUNTIF(AH2:AH51,"Sem Técnico")</f>
         <v>1</v>
       </c>
-      <c r="G3" s="27">
+      <c r="G3" s="28">
         <f ca="1">F3/SUM($B3,$D3,$F3,$H3)</f>
         <v>0.02</v>
       </c>
-      <c r="H3" s="26">
+      <c r="H3" s="27">
         <f ca="1">COUNTIF(AH2:AH51,"Duplicado")</f>
         <v>6</v>
       </c>
-      <c r="I3" s="27">
+      <c r="I3" s="28">
         <f ca="1">H3/SUM($B3,$D3,$F3,$H3)</f>
         <v>0.12</v>
       </c>
-      <c r="J3" s="28">
+      <c r="J3" s="29">
         <f ca="1">SUM(B3,D3,F3,H3)</f>
         <v>50</v>
       </c>
-      <c r="L3" s="31" t="s">
+      <c r="L3" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="M3" s="17" t="s">
+      <c r="M3" s="18" t="s">
         <v>22</v>
       </c>
       <c r="O3" s="4" t="s">
@@ -2350,75 +2350,75 @@
         <f ca="1">F3</f>
         <v>1</v>
       </c>
-      <c r="AD3" s="30" t="str">
+      <c r="AD3" s="31" t="str">
         <f ca="1"/>
         <v>Amaporã</v>
       </c>
-      <c r="AE3" s="30" t="str">
+      <c r="AE3" s="31" t="str">
         <f ca="1">VLOOKUP(AD3,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AG3" s="30" t="str">
+      <c r="AG3" s="31" t="str">
         <f ca="1"/>
         <v>Amaporã</v>
       </c>
-      <c r="AH3" s="30" t="str">
+      <c r="AH3" s="31" t="str">
         <f ca="1">VLOOKUP(AG3,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ3" s="30" t="str">
+      <c r="AJ3" s="31" t="str">
         <f ca="1"/>
         <v>Amaporã</v>
       </c>
-      <c r="AK3" s="30" t="str">
+      <c r="AK3" s="31" t="str">
         <f ca="1">VLOOKUP(AJ3,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
     </row>
     <row r="4" spans="1:37" ht="15.75" customHeight="1">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="26">
+      <c r="B4" s="27">
         <f ca="1">COUNTIF(AK2:AK51,"Enviado")</f>
         <v>44</v>
       </c>
-      <c r="C4" s="27">
+      <c r="C4" s="28">
         <f ca="1">B4/SUM($B4,$D4,$F4,$H4)</f>
         <v>0.88</v>
       </c>
-      <c r="D4" s="26">
+      <c r="D4" s="27">
         <f ca="1">COUNTIF(AK2:AK51,"Atrasado")</f>
         <v>0</v>
       </c>
-      <c r="E4" s="27">
+      <c r="E4" s="28">
         <f ca="1">D4/SUM($B4,$D4,$F4,$H4)</f>
         <v>0</v>
       </c>
-      <c r="F4" s="26">
+      <c r="F4" s="27">
         <f ca="1">COUNTIF(AK2:AK51,"Sem Técnico")</f>
         <v>0</v>
       </c>
-      <c r="G4" s="27">
+      <c r="G4" s="28">
         <f ca="1">F4/SUM($B4,$D4,$F4,$H4)</f>
         <v>0</v>
       </c>
-      <c r="H4" s="26">
+      <c r="H4" s="27">
         <f ca="1">COUNTIF(AK2:AK51,"Duplicado")</f>
         <v>6</v>
       </c>
-      <c r="I4" s="27">
+      <c r="I4" s="28">
         <f ca="1">H4/SUM($B4,$D4,$F4,$H4)</f>
         <v>0.12</v>
       </c>
-      <c r="J4" s="28">
+      <c r="J4" s="29">
         <f ca="1">SUM(B4,D4,F4,H4)</f>
         <v>50</v>
       </c>
-      <c r="L4" s="32" t="s">
+      <c r="L4" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="22" t="s">
+      <c r="M4" s="23" t="s">
         <v>26</v>
       </c>
       <c r="O4" s="4" t="s">
@@ -2436,194 +2436,194 @@
         <f ca="1">F4</f>
         <v>0</v>
       </c>
-      <c r="AD4" s="30" t="str">
+      <c r="AD4" s="31" t="str">
         <f ca="1"/>
         <v>Apucarana</v>
       </c>
-      <c r="AE4" s="30" t="str">
+      <c r="AE4" s="31" t="str">
         <f ca="1">VLOOKUP(AD4,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AG4" s="30" t="str">
+      <c r="AG4" s="31" t="str">
         <f ca="1"/>
         <v>Apucarana</v>
       </c>
-      <c r="AH4" s="30" t="str">
+      <c r="AH4" s="31" t="str">
         <f ca="1">VLOOKUP(AG4,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ4" s="30" t="str">
+      <c r="AJ4" s="31" t="str">
         <f ca="1"/>
         <v>Apucarana</v>
       </c>
-      <c r="AK4" s="30" t="str">
+      <c r="AK4" s="31" t="str">
         <f ca="1">VLOOKUP(AJ4,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
     </row>
     <row r="5" spans="1:37" ht="15.75" customHeight="1">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="28">
+      <c r="B5" s="29">
         <f ca="1">SUM(B2:B4)</f>
         <v>136</v>
       </c>
-      <c r="C5" s="27">
+      <c r="C5" s="28">
         <f ca="1">B5/SUM($B5,$D5,$F5,$H5)</f>
         <v>0.90666666666666662</v>
       </c>
-      <c r="D5" s="28">
+      <c r="D5" s="29">
         <f ca="1">SUM(D2:D4)</f>
         <v>0</v>
       </c>
-      <c r="E5" s="27">
+      <c r="E5" s="28">
         <f ca="1">D5/SUM($B5,$D5,$F5,$H5)</f>
         <v>0</v>
       </c>
-      <c r="F5" s="28">
+      <c r="F5" s="29">
         <f ca="1">SUM(F2:F4)</f>
         <v>1</v>
       </c>
-      <c r="G5" s="27">
+      <c r="G5" s="28">
         <f ca="1">F5/SUM($B5,$D5,$F5,$H5)</f>
         <v>6.6666666666666671E-3</v>
       </c>
-      <c r="H5" s="28">
+      <c r="H5" s="29">
         <f ca="1">SUM(H2:H4)</f>
         <v>13</v>
       </c>
-      <c r="I5" s="27">
+      <c r="I5" s="28">
         <f ca="1">H5/SUM($B5,$D5,$F5,$H5)</f>
         <v>8.666666666666667E-2</v>
       </c>
-      <c r="J5" s="28">
+      <c r="J5" s="29">
         <f ca="1">SUM(J2:J4)</f>
         <v>150</v>
       </c>
-      <c r="L5" s="33" t="s">
+      <c r="L5" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="M5" s="19" t="s">
+      <c r="M5" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="AD5" s="30" t="str">
+      <c r="AD5" s="31" t="str">
         <f ca="1"/>
         <v>Atalaia</v>
       </c>
-      <c r="AE5" s="30" t="str">
+      <c r="AE5" s="31" t="str">
         <f ca="1">VLOOKUP(AD5,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Duplicado</v>
       </c>
-      <c r="AG5" s="30" t="str">
+      <c r="AG5" s="31" t="str">
         <f ca="1"/>
         <v>Atalaia</v>
       </c>
-      <c r="AH5" s="30" t="str">
+      <c r="AH5" s="31" t="str">
         <f ca="1">VLOOKUP(AG5,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Duplicado</v>
       </c>
-      <c r="AJ5" s="30" t="str">
+      <c r="AJ5" s="31" t="str">
         <f ca="1"/>
         <v>Atalaia</v>
       </c>
-      <c r="AK5" s="30" t="str">
+      <c r="AK5" s="31" t="str">
         <f ca="1">VLOOKUP(AJ5,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Duplicado</v>
       </c>
     </row>
     <row r="6" spans="1:37">
-      <c r="L6" s="34" t="s">
+      <c r="L6" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="18" t="s">
+      <c r="M6" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="AD6" s="30" t="str">
+      <c r="AD6" s="31" t="str">
         <f ca="1"/>
         <v>Barracão</v>
       </c>
-      <c r="AE6" s="30" t="str">
+      <c r="AE6" s="31" t="str">
         <f ca="1">VLOOKUP(AD6,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AG6" s="30" t="str">
+      <c r="AG6" s="31" t="str">
         <f ca="1"/>
         <v>Barracão</v>
       </c>
-      <c r="AH6" s="30" t="str">
+      <c r="AH6" s="31" t="str">
         <f ca="1">VLOOKUP(AG6,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ6" s="30" t="str">
+      <c r="AJ6" s="31" t="str">
         <f ca="1"/>
         <v>Barracão</v>
       </c>
-      <c r="AK6" s="30" t="str">
+      <c r="AK6" s="31" t="str">
         <f ca="1">VLOOKUP(AJ6,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
     </row>
     <row r="7" spans="1:37">
-      <c r="L7" s="35" t="s">
+      <c r="L7" s="36" t="s">
         <v>32</v>
       </c>
       <c r="M7" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="AD7" s="30" t="str">
+      <c r="AD7" s="31" t="str">
         <f ca="1"/>
         <v>Borrazópolis</v>
       </c>
-      <c r="AE7" s="30" t="str">
+      <c r="AE7" s="31" t="str">
         <f ca="1">VLOOKUP(AD7,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AG7" s="30" t="str">
+      <c r="AG7" s="31" t="str">
         <f ca="1"/>
         <v>Borrazópolis</v>
       </c>
-      <c r="AH7" s="30" t="str">
+      <c r="AH7" s="31" t="str">
         <f ca="1">VLOOKUP(AG7,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ7" s="30" t="str">
+      <c r="AJ7" s="31" t="str">
         <f ca="1"/>
         <v>Borrazópolis</v>
       </c>
-      <c r="AK7" s="30" t="str">
+      <c r="AK7" s="31" t="str">
         <f ca="1">VLOOKUP(AJ7,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
     </row>
     <row r="8" spans="1:37">
-      <c r="L8" s="36" t="s">
+      <c r="L8" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="M8" s="37" t="s">
+      <c r="M8" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="AD8" s="30" t="str">
+      <c r="AD8" s="31" t="str">
         <f ca="1"/>
         <v>Cambará</v>
       </c>
-      <c r="AE8" s="30" t="str">
+      <c r="AE8" s="31" t="str">
         <f ca="1">VLOOKUP(AD8,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AG8" s="30" t="str">
+      <c r="AG8" s="31" t="str">
         <f ca="1"/>
         <v>Cambará</v>
       </c>
-      <c r="AH8" s="30" t="str">
+      <c r="AH8" s="31" t="str">
         <f ca="1">VLOOKUP(AG8,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ8" s="30" t="str">
+      <c r="AJ8" s="31" t="str">
         <f ca="1"/>
         <v>Cambará</v>
       </c>
-      <c r="AK8" s="30" t="str">
+      <c r="AK8" s="31" t="str">
         <f ca="1">VLOOKUP(AJ8,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
@@ -2638,27 +2638,27 @@
       <c r="C9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AD9" s="30" t="str">
+      <c r="AD9" s="31" t="str">
         <f ca="1"/>
         <v>Campina Da Lagoa</v>
       </c>
-      <c r="AE9" s="30" t="str">
+      <c r="AE9" s="31" t="str">
         <f ca="1">VLOOKUP(AD9,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AG9" s="30" t="str">
+      <c r="AG9" s="31" t="str">
         <f ca="1"/>
         <v>Campina Da Lagoa</v>
       </c>
-      <c r="AH9" s="30" t="str">
+      <c r="AH9" s="31" t="str">
         <f ca="1">VLOOKUP(AG9,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ9" s="30" t="str">
+      <c r="AJ9" s="31" t="str">
         <f ca="1"/>
         <v>Campina Da Lagoa</v>
       </c>
-      <c r="AK9" s="30" t="str">
+      <c r="AK9" s="31" t="str">
         <f ca="1">VLOOKUP(AJ9,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
@@ -2667,35 +2667,35 @@
       <c r="A10" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="26">
+      <c r="B10" s="27">
         <f ca="1">COUNTIF(INDIRECT("'Form 1 - Município'!G2:G100"),"Sim")</f>
         <v>54</v>
       </c>
-      <c r="C10" s="38">
+      <c r="C10" s="39">
         <f ca="1">$B$10/(COUNTA(INDIRECT("'Form 1 - Município'!B2:B70")))</f>
         <v>0.94736842105263153</v>
       </c>
-      <c r="AD10" s="30" t="str">
+      <c r="AD10" s="31" t="str">
         <f ca="1"/>
         <v>Campo Largo</v>
       </c>
-      <c r="AE10" s="30" t="str">
+      <c r="AE10" s="31" t="str">
         <f ca="1">VLOOKUP(AD10,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AG10" s="30" t="str">
+      <c r="AG10" s="31" t="str">
         <f ca="1"/>
         <v>Campo Largo</v>
       </c>
-      <c r="AH10" s="30" t="str">
+      <c r="AH10" s="31" t="str">
         <f ca="1">VLOOKUP(AG10,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ10" s="30" t="str">
+      <c r="AJ10" s="31" t="str">
         <f ca="1"/>
         <v>Campo Largo</v>
       </c>
-      <c r="AK10" s="30" t="str">
+      <c r="AK10" s="31" t="str">
         <f ca="1">VLOOKUP(AJ10,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
@@ -2704,35 +2704,35 @@
       <c r="A11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="26">
+      <c r="B11" s="27">
         <f ca="1">COUNTIF(INDIRECT("'Form 2 - UVR'!G2:G100"),"Sim")</f>
         <v>50</v>
       </c>
-      <c r="C11" s="38">
+      <c r="C11" s="39">
         <f ca="1">$B$11/(COUNTA(INDIRECT("'Form 2 - UVR'!B2:B70")))</f>
         <v>0.8771929824561403</v>
       </c>
-      <c r="AD11" s="30" t="str">
+      <c r="AD11" s="31" t="str">
         <f ca="1"/>
         <v>Campo Magro</v>
       </c>
-      <c r="AE11" s="30" t="str">
+      <c r="AE11" s="31" t="str">
         <f ca="1">VLOOKUP(AD11,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AG11" s="30" t="str">
+      <c r="AG11" s="31" t="str">
         <f ca="1"/>
         <v>Campo Magro</v>
       </c>
-      <c r="AH11" s="30" t="str">
+      <c r="AH11" s="31" t="str">
         <f ca="1">VLOOKUP(AG11,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ11" s="30" t="str">
+      <c r="AJ11" s="31" t="str">
         <f ca="1"/>
         <v>Campo Magro</v>
       </c>
-      <c r="AK11" s="30" t="str">
+      <c r="AK11" s="31" t="str">
         <f ca="1">VLOOKUP(AJ11,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
@@ -2741,87 +2741,87 @@
       <c r="A12" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="26">
+      <c r="B12" s="27">
         <f ca="1">COUNTIF(INDIRECT("'Form 3 - Empreendimento'!G2:G100"),"Sim")</f>
         <v>50</v>
       </c>
-      <c r="C12" s="38">
+      <c r="C12" s="39">
         <f ca="1">$B$12/(COUNTA(INDIRECT("'Form 3 - Empreendimento'!B2:B70")))</f>
         <v>0.8771929824561403</v>
       </c>
-      <c r="AD12" s="30" t="str">
+      <c r="AD12" s="31" t="str">
         <f ca="1"/>
         <v>Capanema</v>
       </c>
-      <c r="AE12" s="30" t="str">
+      <c r="AE12" s="31" t="str">
         <f ca="1">VLOOKUP(AD12,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AG12" s="30" t="str">
+      <c r="AG12" s="31" t="str">
         <f ca="1"/>
         <v>Capanema</v>
       </c>
-      <c r="AH12" s="30" t="str">
+      <c r="AH12" s="31" t="str">
         <f ca="1">VLOOKUP(AG12,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Duplicado</v>
       </c>
-      <c r="AJ12" s="30" t="str">
+      <c r="AJ12" s="31" t="str">
         <f ca="1"/>
         <v>Capanema</v>
       </c>
-      <c r="AK12" s="30" t="str">
+      <c r="AK12" s="31" t="str">
         <f ca="1">VLOOKUP(AJ12,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Duplicado</v>
       </c>
     </row>
     <row r="13" spans="1:37">
-      <c r="AD13" s="30" t="str">
+      <c r="AD13" s="31" t="str">
         <f ca="1"/>
         <v>Cerro Azul</v>
       </c>
-      <c r="AE13" s="30" t="str">
+      <c r="AE13" s="31" t="str">
         <f ca="1">VLOOKUP(AD13,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AG13" s="30" t="str">
+      <c r="AG13" s="31" t="str">
         <f ca="1"/>
         <v>Cerro Azul</v>
       </c>
-      <c r="AH13" s="30" t="str">
+      <c r="AH13" s="31" t="str">
         <f ca="1">VLOOKUP(AG13,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ13" s="30" t="str">
+      <c r="AJ13" s="31" t="str">
         <f ca="1"/>
         <v>Cerro Azul</v>
       </c>
-      <c r="AK13" s="30" t="str">
+      <c r="AK13" s="31" t="str">
         <f ca="1">VLOOKUP(AJ13,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
     </row>
     <row r="14" spans="1:37">
-      <c r="AD14" s="30" t="str">
+      <c r="AD14" s="31" t="str">
         <f ca="1"/>
         <v>Colorado</v>
       </c>
-      <c r="AE14" s="30" t="str">
+      <c r="AE14" s="31" t="str">
         <f ca="1">VLOOKUP(AD14,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AG14" s="30" t="str">
+      <c r="AG14" s="31" t="str">
         <f ca="1"/>
         <v>Colorado</v>
       </c>
-      <c r="AH14" s="30" t="str">
+      <c r="AH14" s="31" t="str">
         <f ca="1">VLOOKUP(AG14,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ14" s="30" t="str">
+      <c r="AJ14" s="31" t="str">
         <f ca="1"/>
         <v>Colorado</v>
       </c>
-      <c r="AK14" s="30" t="str">
+      <c r="AK14" s="31" t="str">
         <f ca="1">VLOOKUP(AJ14,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
@@ -2842,27 +2842,27 @@
         <v>39</v>
       </c>
       <c r="G15" s="46"/>
-      <c r="AD15" s="30" t="str">
+      <c r="AD15" s="31" t="str">
         <f ca="1"/>
         <v>Coronel Vivida</v>
       </c>
-      <c r="AE15" s="30" t="str">
+      <c r="AE15" s="31" t="str">
         <f ca="1">VLOOKUP(AD15,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AG15" s="30" t="str">
+      <c r="AG15" s="31" t="str">
         <f ca="1"/>
         <v>Coronel Vivida</v>
       </c>
-      <c r="AH15" s="30" t="str">
+      <c r="AH15" s="31" t="str">
         <f ca="1">VLOOKUP(AG15,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ15" s="30" t="str">
+      <c r="AJ15" s="31" t="str">
         <f ca="1"/>
         <v>Coronel Vivida</v>
       </c>
-      <c r="AK15" s="30" t="str">
+      <c r="AK15" s="31" t="str">
         <f ca="1">VLOOKUP(AJ15,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Duplicado</v>
       </c>
@@ -2887,186 +2887,186 @@
       <c r="G16" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="AD16" s="30" t="str">
+      <c r="AD16" s="31" t="str">
         <f ca="1"/>
         <v>Cruzeiro Do Sul</v>
       </c>
-      <c r="AE16" s="30" t="str">
+      <c r="AE16" s="31" t="str">
         <f ca="1">VLOOKUP(AD16,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AG16" s="30" t="str">
+      <c r="AG16" s="31" t="str">
         <f ca="1"/>
         <v>Cruzeiro Do Sul</v>
       </c>
-      <c r="AH16" s="30" t="str">
+      <c r="AH16" s="31" t="str">
         <f ca="1">VLOOKUP(AG16,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ16" s="30" t="str">
+      <c r="AJ16" s="31" t="str">
         <f ca="1"/>
         <v>Cruzeiro Do Sul</v>
       </c>
-      <c r="AK16" s="30" t="str">
+      <c r="AK16" s="31" t="str">
         <f ca="1">VLOOKUP(AJ16,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
     </row>
     <row r="17" spans="1:37">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="30">
+      <c r="B17" s="31">
         <f t="array" aca="1" ref="B17" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;B$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;B$15&amp;"'!A2:A100")=$A17) * (INDIRECT("'"&amp;B$15&amp;"'!G2:G100")="Sim"))), 0)</f>
         <v>13</v>
       </c>
-      <c r="C17" s="38">
+      <c r="C17" s="39">
         <f ca="1">B17/(COUNTA(INDIRECT("'Form 1 - Município'!B2:B70")))</f>
         <v>0.22807017543859648</v>
       </c>
-      <c r="D17" s="30">
+      <c r="D17" s="31">
         <f t="array" aca="1" ref="D17" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;D$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;D$15&amp;"'!A2:A100")=$A17) * (INDIRECT("'"&amp;D$15&amp;"'!G2:G100")="Sim"))), 0)</f>
         <v>13</v>
       </c>
-      <c r="E17" s="38">
+      <c r="E17" s="39">
         <f ca="1">D17/(COUNTA(INDIRECT("'Form 2 - UVR'!B2:B70")))</f>
         <v>0.22807017543859648</v>
       </c>
-      <c r="F17" s="30">
+      <c r="F17" s="31">
         <f t="array" aca="1" ref="F17" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;F$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;F$15&amp;"'!A2:A100")=$A17) * (INDIRECT("'"&amp;F$15&amp;"'!G2:G100")="Sim"))), 0)</f>
         <v>11</v>
       </c>
-      <c r="G17" s="38">
+      <c r="G17" s="39">
         <f ca="1">F17/(COUNTA(INDIRECT("'Form 3 - Empreendimento'!B2:B70")))</f>
         <v>0.19298245614035087</v>
       </c>
-      <c r="AD17" s="30" t="str">
+      <c r="AD17" s="31" t="str">
         <f ca="1"/>
         <v>Enéas Marques</v>
       </c>
-      <c r="AE17" s="30" t="str">
+      <c r="AE17" s="31" t="str">
         <f ca="1">VLOOKUP(AD17,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AG17" s="30" t="str">
+      <c r="AG17" s="31" t="str">
         <f ca="1"/>
         <v>Enéas Marques</v>
       </c>
-      <c r="AH17" s="30" t="str">
+      <c r="AH17" s="31" t="str">
         <f ca="1">VLOOKUP(AG17,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Duplicado</v>
       </c>
-      <c r="AJ17" s="30" t="str">
+      <c r="AJ17" s="31" t="str">
         <f ca="1"/>
         <v>Enéas Marques</v>
       </c>
-      <c r="AK17" s="30" t="str">
+      <c r="AK17" s="31" t="str">
         <f ca="1">VLOOKUP(AJ17,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Duplicado</v>
       </c>
     </row>
     <row r="18" spans="1:37">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="30">
+      <c r="B18" s="31">
         <f t="array" aca="1" ref="B18" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;B$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;B$15&amp;"'!A2:A100")=$A18) * (INDIRECT("'"&amp;B$15&amp;"'!G2:G100")="Sim"))), 0)</f>
         <v>9</v>
       </c>
-      <c r="C18" s="38">
+      <c r="C18" s="39">
         <f ca="1">B18/(COUNTA(INDIRECT("'Form 1 - Município'!B2:B70")))</f>
         <v>0.15789473684210525</v>
       </c>
-      <c r="D18" s="30">
+      <c r="D18" s="31">
         <f t="array" aca="1" ref="D18" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;D$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;D$15&amp;"'!A2:A100")=$A18) * (INDIRECT("'"&amp;D$15&amp;"'!G2:G100")="Sim"))), 0)</f>
         <v>6</v>
       </c>
-      <c r="E18" s="38">
+      <c r="E18" s="39">
         <f ca="1">D18/(COUNTA(INDIRECT("'Form 2 - UVR'!B2:B70")))</f>
         <v>0.10526315789473684</v>
       </c>
-      <c r="F18" s="30">
+      <c r="F18" s="31">
         <f t="array" aca="1" ref="F18" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;F$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;F$15&amp;"'!A2:A100")=$A18) * (INDIRECT("'"&amp;F$15&amp;"'!G2:G100")="Sim"))), 0)</f>
         <v>7</v>
       </c>
-      <c r="G18" s="38">
+      <c r="G18" s="39">
         <f ca="1">F18/(COUNTA(INDIRECT("'Form 3 - Empreendimento'!B2:B70")))</f>
         <v>0.12280701754385964</v>
       </c>
-      <c r="AD18" s="30" t="str">
+      <c r="AD18" s="31" t="str">
         <f ca="1"/>
         <v>Francisco Beltrão</v>
       </c>
-      <c r="AE18" s="30" t="str">
+      <c r="AE18" s="31" t="str">
         <f ca="1">VLOOKUP(AD18,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AG18" s="30" t="str">
+      <c r="AG18" s="31" t="str">
         <f ca="1"/>
         <v>Francisco Beltrão</v>
       </c>
-      <c r="AH18" s="30" t="str">
+      <c r="AH18" s="31" t="str">
         <f ca="1">VLOOKUP(AG18,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Duplicado</v>
       </c>
-      <c r="AJ18" s="30" t="str">
+      <c r="AJ18" s="31" t="str">
         <f ca="1"/>
         <v>Francisco Beltrão</v>
       </c>
-      <c r="AK18" s="30" t="str">
+      <c r="AK18" s="31" t="str">
         <f ca="1">VLOOKUP(AJ18,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
     </row>
     <row r="19" spans="1:37">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="30">
+      <c r="B19" s="31">
         <f t="array" aca="1" ref="B19" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;B$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;B$15&amp;"'!A2:A100")=$A19) * (INDIRECT("'"&amp;B$15&amp;"'!G2:G100")="Sim"))), 0)</f>
         <v>2</v>
       </c>
-      <c r="C19" s="38">
+      <c r="C19" s="39">
         <f ca="1">B19/(COUNTA(INDIRECT("'Form 1 - Município'!B2:B70")))</f>
         <v>3.5087719298245612E-2</v>
       </c>
-      <c r="D19" s="30">
+      <c r="D19" s="31">
         <f t="array" aca="1" ref="D19" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;D$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;D$15&amp;"'!A2:A100")=$A19) * (INDIRECT("'"&amp;D$15&amp;"'!G2:G100")="Sim"))), 0)</f>
         <v>2</v>
       </c>
-      <c r="E19" s="38">
+      <c r="E19" s="39">
         <f ca="1">D19/(COUNTA(INDIRECT("'Form 2 - UVR'!B2:B70")))</f>
         <v>3.5087719298245612E-2</v>
       </c>
-      <c r="F19" s="30">
+      <c r="F19" s="31">
         <f t="array" aca="1" ref="F19" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;F$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;F$15&amp;"'!A2:A100")=$A19) * (INDIRECT("'"&amp;F$15&amp;"'!G2:G100")="Sim"))), 0)</f>
         <v>2</v>
       </c>
-      <c r="G19" s="38">
+      <c r="G19" s="39">
         <f ca="1">F19/(COUNTA(INDIRECT("'Form 3 - Empreendimento'!B2:B70")))</f>
         <v>3.5087719298245612E-2</v>
       </c>
-      <c r="AD19" s="30" t="str">
+      <c r="AD19" s="31" t="str">
         <f ca="1"/>
         <v>General Carneiro</v>
       </c>
-      <c r="AE19" s="30" t="str">
+      <c r="AE19" s="31" t="str">
         <f ca="1">VLOOKUP(AD19,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AG19" s="30" t="str">
+      <c r="AG19" s="31" t="str">
         <f ca="1"/>
         <v>General Carneiro</v>
       </c>
-      <c r="AH19" s="30" t="str">
+      <c r="AH19" s="31" t="str">
         <f ca="1">VLOOKUP(AG19,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ19" s="30" t="str">
+      <c r="AJ19" s="31" t="str">
         <f ca="1"/>
         <v>General Carneiro</v>
       </c>
-      <c r="AK19" s="30" t="str">
+      <c r="AK19" s="31" t="str">
         <f ca="1">VLOOKUP(AJ19,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
@@ -3075,104 +3075,104 @@
       <c r="A20" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="30">
+      <c r="B20" s="31">
         <f t="array" aca="1" ref="B20" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;B$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;B$15&amp;"'!A2:A100")=$A20) * (INDIRECT("'"&amp;B$15&amp;"'!G2:G100")="Sim"))), 0)</f>
         <v>6</v>
       </c>
-      <c r="C20" s="38">
+      <c r="C20" s="39">
         <f ca="1">B20/(COUNTA(INDIRECT("'Form 1 - Município'!B2:B70")))</f>
         <v>0.10526315789473684</v>
       </c>
-      <c r="D20" s="30">
+      <c r="D20" s="31">
         <f t="array" aca="1" ref="D20" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;D$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;D$15&amp;"'!A2:A100")=$A20) * (INDIRECT("'"&amp;D$15&amp;"'!G2:G100")="Sim"))), 0)</f>
         <v>6</v>
       </c>
-      <c r="E20" s="38">
+      <c r="E20" s="39">
         <f ca="1">D20/(COUNTA(INDIRECT("'Form 2 - UVR'!B2:B70")))</f>
         <v>0.10526315789473684</v>
       </c>
-      <c r="F20" s="30">
+      <c r="F20" s="31">
         <f t="array" aca="1" ref="F20" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;F$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;F$15&amp;"'!A2:A100")=$A20) * (INDIRECT("'"&amp;F$15&amp;"'!G2:G100")="Sim"))), 0)</f>
         <v>6</v>
       </c>
-      <c r="G20" s="38">
+      <c r="G20" s="39">
         <f ca="1">F20/(COUNTA(INDIRECT("'Form 3 - Empreendimento'!B2:B70")))</f>
         <v>0.10526315789473684</v>
       </c>
-      <c r="AD20" s="30" t="str">
+      <c r="AD20" s="31" t="str">
         <f ca="1"/>
         <v>Ibaiti</v>
       </c>
-      <c r="AE20" s="30" t="str">
+      <c r="AE20" s="31" t="str">
         <f ca="1">VLOOKUP(AD20,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AG20" s="30" t="str">
+      <c r="AG20" s="31" t="str">
         <f ca="1"/>
         <v>Ibaiti</v>
       </c>
-      <c r="AH20" s="30" t="str">
+      <c r="AH20" s="31" t="str">
         <f ca="1">VLOOKUP(AG20,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ20" s="30" t="str">
+      <c r="AJ20" s="31" t="str">
         <f ca="1"/>
         <v>Ibaiti</v>
       </c>
-      <c r="AK20" s="30" t="str">
+      <c r="AK20" s="31" t="str">
         <f ca="1">VLOOKUP(AJ20,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
     </row>
     <row r="21" spans="1:37">
-      <c r="A21" s="18" t="s">
+      <c r="A21" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="30">
+      <c r="B21" s="31">
         <f t="array" aca="1" ref="B21" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;B$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;B$15&amp;"'!A2:A100")=$A21) * (INDIRECT("'"&amp;B$15&amp;"'!G2:G100")="Sim"))), 0)</f>
         <v>8</v>
       </c>
-      <c r="C21" s="38">
+      <c r="C21" s="39">
         <f ca="1">B21/(COUNTA(INDIRECT("'Form 1 - Município'!B2:B70")))</f>
         <v>0.14035087719298245</v>
       </c>
-      <c r="D21" s="30">
+      <c r="D21" s="31">
         <f t="array" aca="1" ref="D21" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;D$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;D$15&amp;"'!A2:A100")=$A21) * (INDIRECT("'"&amp;D$15&amp;"'!G2:G100")="Sim"))), 0)</f>
         <v>8</v>
       </c>
-      <c r="E21" s="38">
+      <c r="E21" s="39">
         <f ca="1">D21/(COUNTA(INDIRECT("'Form 2 - UVR'!B2:B70")))</f>
         <v>0.14035087719298245</v>
       </c>
-      <c r="F21" s="30">
+      <c r="F21" s="31">
         <f t="array" aca="1" ref="F21" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;F$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;F$15&amp;"'!A2:A100")=$A21) * (INDIRECT("'"&amp;F$15&amp;"'!G2:G100")="Sim"))), 0)</f>
         <v>8</v>
       </c>
-      <c r="G21" s="38">
+      <c r="G21" s="39">
         <f ca="1">F21/(COUNTA(INDIRECT("'Form 3 - Empreendimento'!B2:B70")))</f>
         <v>0.14035087719298245</v>
       </c>
-      <c r="AD21" s="30" t="str">
+      <c r="AD21" s="31" t="str">
         <f ca="1"/>
         <v>Jaguapitã</v>
       </c>
-      <c r="AE21" s="30" t="str">
+      <c r="AE21" s="31" t="str">
         <f ca="1">VLOOKUP(AD21,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AG21" s="30" t="str">
+      <c r="AG21" s="31" t="str">
         <f ca="1"/>
         <v>Jaguapitã</v>
       </c>
-      <c r="AH21" s="30" t="str">
+      <c r="AH21" s="31" t="str">
         <f ca="1">VLOOKUP(AG21,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ21" s="30" t="str">
+      <c r="AJ21" s="31" t="str">
         <f ca="1"/>
         <v>Jaguapitã</v>
       </c>
-      <c r="AK21" s="30" t="str">
+      <c r="AK21" s="31" t="str">
         <f ca="1">VLOOKUP(AJ21,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
@@ -3181,104 +3181,104 @@
       <c r="A22" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="30">
+      <c r="B22" s="31">
         <f t="array" aca="1" ref="B22" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;B$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;B$15&amp;"'!A2:A100")=$A22) * (INDIRECT("'"&amp;B$15&amp;"'!G2:G100")="Sim"))), 0)</f>
         <v>8</v>
       </c>
-      <c r="C22" s="38">
+      <c r="C22" s="39">
         <f ca="1">B22/(COUNTA(INDIRECT("'Form 1 - Município'!B2:B70")))</f>
         <v>0.14035087719298245</v>
       </c>
-      <c r="D22" s="30">
+      <c r="D22" s="31">
         <f t="array" aca="1" ref="D22" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;D$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;D$15&amp;"'!A2:A100")=$A22) * (INDIRECT("'"&amp;D$15&amp;"'!G2:G100")="Sim"))), 0)</f>
         <v>8</v>
       </c>
-      <c r="E22" s="38">
+      <c r="E22" s="39">
         <f ca="1">D22/(COUNTA(INDIRECT("'Form 2 - UVR'!B2:B70")))</f>
         <v>0.14035087719298245</v>
       </c>
-      <c r="F22" s="30">
+      <c r="F22" s="31">
         <f t="array" aca="1" ref="F22" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;F$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;F$15&amp;"'!A2:A100")=$A22) * (INDIRECT("'"&amp;F$15&amp;"'!G2:G100")="Sim"))), 0)</f>
         <v>8</v>
       </c>
-      <c r="G22" s="38">
+      <c r="G22" s="39">
         <f ca="1">F22/(COUNTA(INDIRECT("'Form 3 - Empreendimento'!B2:B70")))</f>
         <v>0.14035087719298245</v>
       </c>
-      <c r="AD22" s="30" t="str">
+      <c r="AD22" s="31" t="str">
         <f ca="1"/>
         <v>Jaguariaíva</v>
       </c>
-      <c r="AE22" s="30" t="str">
+      <c r="AE22" s="31" t="str">
         <f ca="1">VLOOKUP(AD22,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AG22" s="30" t="str">
+      <c r="AG22" s="31" t="str">
         <f ca="1"/>
         <v>Jaguariaíva</v>
       </c>
-      <c r="AH22" s="30" t="str">
+      <c r="AH22" s="31" t="str">
         <f ca="1">VLOOKUP(AG22,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ22" s="30" t="str">
+      <c r="AJ22" s="31" t="str">
         <f ca="1"/>
         <v>Jaguariaíva</v>
       </c>
-      <c r="AK22" s="30" t="str">
+      <c r="AK22" s="31" t="str">
         <f ca="1">VLOOKUP(AJ22,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
     </row>
     <row r="23" spans="1:37">
-      <c r="A23" s="37" t="s">
+      <c r="A23" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="30">
+      <c r="B23" s="31">
         <f t="array" aca="1" ref="B23" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;B$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;B$15&amp;"'!A2:A100")=$A23) * (INDIRECT("'"&amp;B$15&amp;"'!G2:G100")="Sim"))), 0)</f>
         <v>8</v>
       </c>
-      <c r="C23" s="38">
+      <c r="C23" s="39">
         <f ca="1">B23/(COUNTA(INDIRECT("'Form 1 - Município'!B2:B70")))</f>
         <v>0.14035087719298245</v>
       </c>
-      <c r="D23" s="30">
+      <c r="D23" s="31">
         <f t="array" aca="1" ref="D23" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;D$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;D$15&amp;"'!A2:A100")=$A23) * (INDIRECT("'"&amp;D$15&amp;"'!G2:G100")="Sim"))), 0)</f>
         <v>7</v>
       </c>
-      <c r="E23" s="38">
+      <c r="E23" s="39">
         <f ca="1">D23/(COUNTA(INDIRECT("'Form 2 - UVR'!B2:B70")))</f>
         <v>0.12280701754385964</v>
       </c>
-      <c r="F23" s="30">
+      <c r="F23" s="31">
         <f t="array" aca="1" ref="F23" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;F$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;F$15&amp;"'!A2:A100")=$A23) * (INDIRECT("'"&amp;F$15&amp;"'!G2:G100")="Sim"))), 0)</f>
         <v>8</v>
       </c>
-      <c r="G23" s="38">
+      <c r="G23" s="39">
         <f ca="1">F23/(COUNTA(INDIRECT("'Form 3 - Empreendimento'!B2:B70")))</f>
         <v>0.14035087719298245</v>
       </c>
-      <c r="AD23" s="30" t="str">
+      <c r="AD23" s="31" t="str">
         <f ca="1"/>
         <v>Jardim Alegre</v>
       </c>
-      <c r="AE23" s="30" t="str">
+      <c r="AE23" s="31" t="str">
         <f ca="1">VLOOKUP(AD23,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AG23" s="30" t="str">
+      <c r="AG23" s="31" t="str">
         <f ca="1"/>
         <v>Jardim Alegre</v>
       </c>
-      <c r="AH23" s="30" t="str">
+      <c r="AH23" s="31" t="str">
         <f ca="1">VLOOKUP(AG23,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ23" s="30" t="str">
+      <c r="AJ23" s="31" t="str">
         <f ca="1"/>
         <v>Jardim Alegre</v>
       </c>
-      <c r="AK23" s="30" t="str">
+      <c r="AK23" s="31" t="str">
         <f ca="1">VLOOKUP(AJ23,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
@@ -3287,753 +3287,753 @@
       <c r="A24" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="39">
+      <c r="B24" s="40">
         <f ca="1">SUM(B17:B23)</f>
         <v>54</v>
       </c>
-      <c r="C24" s="40">
+      <c r="C24" s="41">
         <f ca="1">SUM(C17:C23)</f>
         <v>0.94736842105263153</v>
       </c>
-      <c r="D24" s="39">
+      <c r="D24" s="40">
         <f ca="1">SUM(D17:D23)</f>
         <v>50</v>
       </c>
-      <c r="E24" s="40">
+      <c r="E24" s="41">
         <f ca="1">SUM(E17:E23)</f>
         <v>0.87719298245614019</v>
       </c>
-      <c r="F24" s="39">
+      <c r="F24" s="40">
         <f ca="1">SUM(F17:F23)</f>
         <v>50</v>
       </c>
-      <c r="G24" s="40">
+      <c r="G24" s="41">
         <f ca="1">SUM(G17:G23)</f>
         <v>0.8771929824561403</v>
       </c>
-      <c r="AD24" s="30" t="str">
+      <c r="AD24" s="31" t="str">
         <f ca="1"/>
         <v>Kaloré</v>
       </c>
-      <c r="AE24" s="30" t="str">
+      <c r="AE24" s="31" t="str">
         <f ca="1">VLOOKUP(AD24,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AG24" s="30" t="str">
+      <c r="AG24" s="31" t="str">
         <f ca="1"/>
         <v>Kaloré</v>
       </c>
-      <c r="AH24" s="30" t="str">
+      <c r="AH24" s="31" t="str">
         <f ca="1">VLOOKUP(AG24,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ24" s="30" t="str">
+      <c r="AJ24" s="31" t="str">
         <f ca="1"/>
         <v>Kaloré</v>
       </c>
-      <c r="AK24" s="30" t="str">
+      <c r="AK24" s="31" t="str">
         <f ca="1">VLOOKUP(AJ24,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
     </row>
     <row r="25" spans="1:37">
-      <c r="AD25" s="30" t="str">
+      <c r="AD25" s="31" t="str">
         <f ca="1"/>
         <v>Lapa</v>
       </c>
-      <c r="AE25" s="30" t="str">
+      <c r="AE25" s="31" t="str">
         <f ca="1">VLOOKUP(AD25,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AG25" s="30" t="str">
+      <c r="AG25" s="31" t="str">
         <f ca="1"/>
         <v>Lapa</v>
       </c>
-      <c r="AH25" s="30" t="str">
+      <c r="AH25" s="31" t="str">
         <f ca="1">VLOOKUP(AG25,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ25" s="30" t="str">
+      <c r="AJ25" s="31" t="str">
         <f ca="1"/>
         <v>Lapa</v>
       </c>
-      <c r="AK25" s="30" t="str">
+      <c r="AK25" s="31" t="str">
         <f ca="1">VLOOKUP(AJ25,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
     </row>
     <row r="26" spans="1:37">
-      <c r="AD26" s="30" t="str">
+      <c r="AD26" s="31" t="str">
         <f ca="1"/>
         <v>Laranjeiras Do Sul</v>
       </c>
-      <c r="AE26" s="30" t="str">
+      <c r="AE26" s="31" t="str">
         <f ca="1">VLOOKUP(AD26,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AG26" s="30" t="str">
+      <c r="AG26" s="31" t="str">
         <f ca="1"/>
         <v>Laranjeiras Do Sul</v>
       </c>
-      <c r="AH26" s="30" t="str">
+      <c r="AH26" s="31" t="str">
         <f ca="1">VLOOKUP(AG26,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ26" s="30" t="str">
+      <c r="AJ26" s="31" t="str">
         <f ca="1"/>
         <v>Laranjeiras Do Sul</v>
       </c>
-      <c r="AK26" s="30" t="str">
+      <c r="AK26" s="31" t="str">
         <f ca="1">VLOOKUP(AJ26,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
     </row>
     <row r="27" spans="1:37">
-      <c r="AD27" s="30" t="str">
+      <c r="AD27" s="31" t="str">
         <f ca="1"/>
         <v>Mandaguaçu</v>
       </c>
-      <c r="AE27" s="30" t="str">
+      <c r="AE27" s="31" t="str">
         <f ca="1">VLOOKUP(AD27,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AG27" s="30" t="str">
+      <c r="AG27" s="31" t="str">
         <f ca="1"/>
         <v>Mandaguaçu</v>
       </c>
-      <c r="AH27" s="30" t="str">
+      <c r="AH27" s="31" t="str">
         <f ca="1">VLOOKUP(AG27,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ27" s="30" t="str">
+      <c r="AJ27" s="31" t="str">
         <f ca="1"/>
         <v>Mandaguaçu</v>
       </c>
-      <c r="AK27" s="30" t="str">
+      <c r="AK27" s="31" t="str">
         <f ca="1">VLOOKUP(AJ27,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
     </row>
     <row r="28" spans="1:37">
-      <c r="AD28" s="30" t="str">
+      <c r="AD28" s="31" t="str">
         <f ca="1"/>
         <v>Mandaguari</v>
       </c>
-      <c r="AE28" s="30" t="str">
+      <c r="AE28" s="31" t="str">
         <f ca="1">VLOOKUP(AD28,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AG28" s="30" t="str">
+      <c r="AG28" s="31" t="str">
         <f ca="1"/>
         <v>Mandaguari</v>
       </c>
-      <c r="AH28" s="30" t="str">
+      <c r="AH28" s="31" t="str">
         <f ca="1">VLOOKUP(AG28,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ28" s="30" t="str">
+      <c r="AJ28" s="31" t="str">
         <f ca="1"/>
         <v>Mandaguari</v>
       </c>
-      <c r="AK28" s="30" t="str">
+      <c r="AK28" s="31" t="str">
         <f ca="1">VLOOKUP(AJ28,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
     </row>
     <row r="29" spans="1:37">
-      <c r="AD29" s="30" t="str">
+      <c r="AD29" s="31" t="str">
         <f ca="1"/>
         <v>Marmeleiro</v>
       </c>
-      <c r="AE29" s="30" t="str">
+      <c r="AE29" s="31" t="str">
         <f ca="1">VLOOKUP(AD29,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AG29" s="30" t="str">
+      <c r="AG29" s="31" t="str">
         <f ca="1"/>
         <v>Marmeleiro</v>
       </c>
-      <c r="AH29" s="30" t="str">
+      <c r="AH29" s="31" t="str">
         <f ca="1">VLOOKUP(AG29,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ29" s="30" t="str">
+      <c r="AJ29" s="31" t="str">
         <f ca="1"/>
         <v>Marmeleiro</v>
       </c>
-      <c r="AK29" s="30" t="str">
+      <c r="AK29" s="31" t="str">
         <f ca="1">VLOOKUP(AJ29,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
     </row>
     <row r="30" spans="1:37">
-      <c r="AD30" s="30" t="str">
+      <c r="AD30" s="31" t="str">
         <f ca="1"/>
         <v>Mato Rico</v>
       </c>
-      <c r="AE30" s="30" t="str">
+      <c r="AE30" s="31" t="str">
         <f ca="1">VLOOKUP(AD30,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AG30" s="30" t="str">
+      <c r="AG30" s="31" t="str">
         <f ca="1"/>
         <v>Mato Rico</v>
       </c>
-      <c r="AH30" s="30" t="str">
+      <c r="AH30" s="31" t="str">
         <f ca="1">VLOOKUP(AG30,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ30" s="30" t="str">
+      <c r="AJ30" s="31" t="str">
         <f ca="1"/>
         <v>Mato Rico</v>
       </c>
-      <c r="AK30" s="30" t="str">
+      <c r="AK30" s="31" t="str">
         <f ca="1">VLOOKUP(AJ30,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
     </row>
     <row r="31" spans="1:37">
-      <c r="AD31" s="30" t="str">
+      <c r="AD31" s="31" t="str">
         <f ca="1"/>
         <v>Nova Tebas</v>
       </c>
-      <c r="AE31" s="30" t="str">
+      <c r="AE31" s="31" t="str">
         <f ca="1">VLOOKUP(AD31,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AG31" s="30" t="str">
+      <c r="AG31" s="31" t="str">
         <f ca="1"/>
         <v>Nova Tebas</v>
       </c>
-      <c r="AH31" s="30" t="str">
+      <c r="AH31" s="31" t="str">
         <f ca="1">VLOOKUP(AG31,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ31" s="30" t="str">
+      <c r="AJ31" s="31" t="str">
         <f ca="1"/>
         <v>Nova Tebas</v>
       </c>
-      <c r="AK31" s="30" t="str">
+      <c r="AK31" s="31" t="str">
         <f ca="1">VLOOKUP(AJ31,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
     </row>
     <row r="32" spans="1:37">
-      <c r="AD32" s="30" t="str">
+      <c r="AD32" s="31" t="str">
         <f ca="1"/>
         <v>Ortigueira</v>
       </c>
-      <c r="AE32" s="30" t="str">
+      <c r="AE32" s="31" t="str">
         <f ca="1">VLOOKUP(AD32,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AG32" s="30" t="str">
+      <c r="AG32" s="31" t="str">
         <f ca="1"/>
         <v>Ortigueira</v>
       </c>
-      <c r="AH32" s="30" t="str">
+      <c r="AH32" s="31" t="str">
         <f ca="1">VLOOKUP(AG32,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ32" s="30" t="str">
+      <c r="AJ32" s="31" t="str">
         <f ca="1"/>
         <v>Ortigueira</v>
       </c>
-      <c r="AK32" s="30" t="str">
+      <c r="AK32" s="31" t="str">
         <f ca="1">VLOOKUP(AJ32,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
     </row>
     <row r="33" spans="30:37">
-      <c r="AD33" s="30" t="str">
+      <c r="AD33" s="31" t="str">
         <f ca="1"/>
         <v>Palmital</v>
       </c>
-      <c r="AE33" s="30" t="str">
+      <c r="AE33" s="31" t="str">
         <f ca="1">VLOOKUP(AD33,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AG33" s="30" t="str">
+      <c r="AG33" s="31" t="str">
         <f ca="1"/>
         <v>Palmital</v>
       </c>
-      <c r="AH33" s="30" t="str">
+      <c r="AH33" s="31" t="str">
         <f ca="1">VLOOKUP(AG33,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Duplicado</v>
       </c>
-      <c r="AJ33" s="30" t="str">
+      <c r="AJ33" s="31" t="str">
         <f ca="1"/>
         <v>Palmital</v>
       </c>
-      <c r="AK33" s="30" t="str">
+      <c r="AK33" s="31" t="str">
         <f ca="1">VLOOKUP(AJ33,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
     </row>
     <row r="34" spans="30:37">
-      <c r="AD34" s="30" t="str">
+      <c r="AD34" s="31" t="str">
         <f ca="1"/>
         <v>Paraíso Do Norte</v>
       </c>
-      <c r="AE34" s="30" t="str">
+      <c r="AE34" s="31" t="str">
         <f ca="1">VLOOKUP(AD34,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AG34" s="30" t="str">
+      <c r="AG34" s="31" t="str">
         <f ca="1"/>
         <v>Paraíso Do Norte</v>
       </c>
-      <c r="AH34" s="30" t="str">
+      <c r="AH34" s="31" t="str">
         <f ca="1">VLOOKUP(AG34,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ34" s="30" t="str">
+      <c r="AJ34" s="31" t="str">
         <f ca="1"/>
         <v>Paraíso Do Norte</v>
       </c>
-      <c r="AK34" s="30" t="str">
+      <c r="AK34" s="31" t="str">
         <f ca="1">VLOOKUP(AJ34,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
     </row>
     <row r="35" spans="30:37">
-      <c r="AD35" s="30" t="str">
+      <c r="AD35" s="31" t="str">
         <f ca="1"/>
         <v>Presidente Castelo Branco</v>
       </c>
-      <c r="AE35" s="30" t="str">
+      <c r="AE35" s="31" t="str">
         <f ca="1">VLOOKUP(AD35,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AG35" s="30" t="str">
+      <c r="AG35" s="31" t="str">
         <f ca="1"/>
         <v>Presidente Castelo Branco</v>
       </c>
-      <c r="AH35" s="30" t="str">
+      <c r="AH35" s="31" t="str">
         <f ca="1">VLOOKUP(AG35,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ35" s="30" t="str">
+      <c r="AJ35" s="31" t="str">
         <f ca="1"/>
         <v>Presidente Castelo Branco</v>
       </c>
-      <c r="AK35" s="30" t="str">
+      <c r="AK35" s="31" t="str">
         <f ca="1">VLOOKUP(AJ35,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
     </row>
     <row r="36" spans="30:37">
-      <c r="AD36" s="30" t="str">
+      <c r="AD36" s="31" t="str">
         <f ca="1"/>
         <v>Quedas Do Iguaçu</v>
       </c>
-      <c r="AE36" s="30" t="str">
+      <c r="AE36" s="31" t="str">
         <f ca="1">VLOOKUP(AD36,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AG36" s="30" t="str">
+      <c r="AG36" s="31" t="str">
         <f ca="1"/>
         <v>Quedas Do Iguaçu</v>
       </c>
-      <c r="AH36" s="30" t="str">
+      <c r="AH36" s="31" t="str">
         <f ca="1">VLOOKUP(AG36,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ36" s="30" t="str">
+      <c r="AJ36" s="31" t="str">
         <f ca="1"/>
         <v>Quedas Do Iguaçu</v>
       </c>
-      <c r="AK36" s="30" t="str">
+      <c r="AK36" s="31" t="str">
         <f ca="1">VLOOKUP(AJ36,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
     </row>
     <row r="37" spans="30:37">
-      <c r="AD37" s="30" t="str">
+      <c r="AD37" s="31" t="str">
         <f ca="1"/>
         <v>Realeza</v>
       </c>
-      <c r="AE37" s="30" t="str">
+      <c r="AE37" s="31" t="str">
         <f ca="1">VLOOKUP(AD37,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AG37" s="30" t="str">
+      <c r="AG37" s="31" t="str">
         <f ca="1"/>
         <v>Realeza</v>
       </c>
-      <c r="AH37" s="30" t="str">
+      <c r="AH37" s="31" t="str">
         <f ca="1">VLOOKUP(AG37,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ37" s="30" t="str">
+      <c r="AJ37" s="31" t="str">
         <f ca="1"/>
         <v>Realeza</v>
       </c>
-      <c r="AK37" s="30" t="str">
+      <c r="AK37" s="31" t="str">
         <f ca="1">VLOOKUP(AJ37,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
     </row>
     <row r="38" spans="30:37">
-      <c r="AD38" s="30" t="str">
+      <c r="AD38" s="31" t="str">
         <f ca="1"/>
         <v>Reserva Do Iguaçu</v>
       </c>
-      <c r="AE38" s="30" t="str">
+      <c r="AE38" s="31" t="str">
         <f ca="1">VLOOKUP(AD38,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AG38" s="30" t="str">
+      <c r="AG38" s="31" t="str">
         <f ca="1"/>
         <v>Reserva Do Iguaçu</v>
       </c>
-      <c r="AH38" s="30" t="str">
+      <c r="AH38" s="31" t="str">
         <f ca="1">VLOOKUP(AG38,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ38" s="30" t="str">
+      <c r="AJ38" s="31" t="str">
         <f ca="1"/>
         <v>Reserva Do Iguaçu</v>
       </c>
-      <c r="AK38" s="30" t="str">
+      <c r="AK38" s="31" t="str">
         <f ca="1">VLOOKUP(AJ38,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
     </row>
     <row r="39" spans="30:37">
-      <c r="AD39" s="30" t="str">
+      <c r="AD39" s="31" t="str">
         <f ca="1"/>
         <v>Ribeirão Claro</v>
       </c>
-      <c r="AE39" s="30" t="str">
+      <c r="AE39" s="31" t="str">
         <f ca="1">VLOOKUP(AD39,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AG39" s="30" t="str">
+      <c r="AG39" s="31" t="str">
         <f ca="1"/>
         <v>Ribeirão Claro</v>
       </c>
-      <c r="AH39" s="30" t="str">
+      <c r="AH39" s="31" t="str">
         <f ca="1">VLOOKUP(AG39,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ39" s="30" t="str">
+      <c r="AJ39" s="31" t="str">
         <f ca="1"/>
         <v>Ribeirão Claro</v>
       </c>
-      <c r="AK39" s="30" t="str">
+      <c r="AK39" s="31" t="str">
         <f ca="1">VLOOKUP(AJ39,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
     </row>
     <row r="40" spans="30:37">
-      <c r="AD40" s="30" t="str">
+      <c r="AD40" s="31" t="str">
         <f ca="1"/>
         <v>Rio Branco Do Sul</v>
       </c>
-      <c r="AE40" s="30" t="str">
+      <c r="AE40" s="31" t="str">
         <f ca="1">VLOOKUP(AD40,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AG40" s="30" t="str">
+      <c r="AG40" s="31" t="str">
         <f ca="1"/>
         <v>Rio Branco Do Sul</v>
       </c>
-      <c r="AH40" s="30" t="str">
+      <c r="AH40" s="31" t="str">
         <f ca="1">VLOOKUP(AG40,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ40" s="30" t="str">
+      <c r="AJ40" s="31" t="str">
         <f ca="1"/>
         <v>Rio Branco Do Sul</v>
       </c>
-      <c r="AK40" s="30" t="str">
+      <c r="AK40" s="31" t="str">
         <f ca="1">VLOOKUP(AJ40,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
     </row>
     <row r="41" spans="30:37">
-      <c r="AD41" s="30" t="str">
+      <c r="AD41" s="31" t="str">
         <f ca="1"/>
         <v>Rio Negro</v>
       </c>
-      <c r="AE41" s="30" t="str">
+      <c r="AE41" s="31" t="str">
         <f ca="1">VLOOKUP(AD41,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AG41" s="30" t="str">
+      <c r="AG41" s="31" t="str">
         <f ca="1"/>
         <v>Rio Negro</v>
       </c>
-      <c r="AH41" s="30" t="str">
+      <c r="AH41" s="31" t="str">
         <f ca="1">VLOOKUP(AG41,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ41" s="30" t="str">
+      <c r="AJ41" s="31" t="str">
         <f ca="1"/>
         <v>Rio Negro</v>
       </c>
-      <c r="AK41" s="30" t="str">
+      <c r="AK41" s="31" t="str">
         <f ca="1">VLOOKUP(AJ41,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Duplicado</v>
       </c>
     </row>
     <row r="42" spans="30:37">
-      <c r="AD42" s="30" t="str">
+      <c r="AD42" s="31" t="str">
         <f ca="1"/>
         <v>Salgado Filho</v>
       </c>
-      <c r="AE42" s="30" t="str">
+      <c r="AE42" s="31" t="str">
         <f ca="1">VLOOKUP(AD42,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AG42" s="30" t="str">
+      <c r="AG42" s="31" t="str">
         <f ca="1"/>
         <v>Salgado Filho</v>
       </c>
-      <c r="AH42" s="30" t="str">
+      <c r="AH42" s="31" t="str">
         <f ca="1">VLOOKUP(AG42,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ42" s="30" t="str">
+      <c r="AJ42" s="31" t="str">
         <f ca="1"/>
         <v>Salgado Filho</v>
       </c>
-      <c r="AK42" s="30" t="str">
+      <c r="AK42" s="31" t="str">
         <f ca="1">VLOOKUP(AJ42,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
     </row>
     <row r="43" spans="30:37">
-      <c r="AD43" s="30" t="str">
+      <c r="AD43" s="31" t="str">
         <f ca="1"/>
         <v>Santa Maria Do Oeste</v>
       </c>
-      <c r="AE43" s="30" t="str">
+      <c r="AE43" s="31" t="str">
         <f ca="1">VLOOKUP(AD43,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AG43" s="30" t="str">
+      <c r="AG43" s="31" t="str">
         <f ca="1"/>
         <v>Santa Maria Do Oeste</v>
       </c>
-      <c r="AH43" s="30" t="str">
+      <c r="AH43" s="31" t="str">
         <f ca="1">VLOOKUP(AG43,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ43" s="30" t="str">
+      <c r="AJ43" s="31" t="str">
         <f ca="1"/>
         <v>Santa Maria Do Oeste</v>
       </c>
-      <c r="AK43" s="30" t="str">
+      <c r="AK43" s="31" t="str">
         <f ca="1">VLOOKUP(AJ43,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
     </row>
     <row r="44" spans="30:37">
-      <c r="AD44" s="30" t="str">
+      <c r="AD44" s="31" t="str">
         <f ca="1"/>
         <v>Santa Mariana</v>
       </c>
-      <c r="AE44" s="30" t="str">
+      <c r="AE44" s="31" t="str">
         <f ca="1">VLOOKUP(AD44,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AG44" s="30" t="str">
+      <c r="AG44" s="31" t="str">
         <f ca="1"/>
         <v>Santa Mariana</v>
       </c>
-      <c r="AH44" s="30" t="str">
+      <c r="AH44" s="31" t="str">
         <f ca="1">VLOOKUP(AG44,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ44" s="30" t="str">
+      <c r="AJ44" s="31" t="str">
         <f ca="1"/>
         <v>Santa Mariana</v>
       </c>
-      <c r="AK44" s="30" t="str">
+      <c r="AK44" s="31" t="str">
         <f ca="1">VLOOKUP(AJ44,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
     </row>
     <row r="45" spans="30:37">
-      <c r="AD45" s="30" t="str">
+      <c r="AD45" s="31" t="str">
         <f ca="1"/>
         <v>Santa Mônica</v>
       </c>
-      <c r="AE45" s="30" t="str">
+      <c r="AE45" s="31" t="str">
         <f ca="1">VLOOKUP(AD45,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AG45" s="30" t="str">
+      <c r="AG45" s="31" t="str">
         <f ca="1"/>
         <v>Santa Mônica</v>
       </c>
-      <c r="AH45" s="30" t="str">
+      <c r="AH45" s="31" t="str">
         <f ca="1">VLOOKUP(AG45,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ45" s="30" t="str">
+      <c r="AJ45" s="31" t="str">
         <f ca="1"/>
         <v>Santa Mônica</v>
       </c>
-      <c r="AK45" s="30" t="str">
+      <c r="AK45" s="31" t="str">
         <f ca="1">VLOOKUP(AJ45,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
     </row>
     <row r="46" spans="30:37">
-      <c r="AD46" s="30" t="str">
+      <c r="AD46" s="31" t="str">
         <f ca="1"/>
         <v>Santana Do Itararé</v>
       </c>
-      <c r="AE46" s="30" t="str">
+      <c r="AE46" s="31" t="str">
         <f ca="1">VLOOKUP(AD46,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AG46" s="30" t="str">
+      <c r="AG46" s="31" t="str">
         <f ca="1"/>
         <v>Santana Do Itararé</v>
       </c>
-      <c r="AH46" s="30" t="str">
+      <c r="AH46" s="31" t="str">
         <f ca="1">VLOOKUP(AG46,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ46" s="30" t="str">
+      <c r="AJ46" s="31" t="str">
         <f ca="1"/>
         <v>Santana Do Itararé</v>
       </c>
-      <c r="AK46" s="30" t="str">
+      <c r="AK46" s="31" t="str">
         <f ca="1">VLOOKUP(AJ46,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
     </row>
     <row r="47" spans="30:37">
-      <c r="AD47" s="30" t="str">
+      <c r="AD47" s="31" t="str">
         <f ca="1"/>
         <v>São João</v>
       </c>
-      <c r="AE47" s="30" t="str">
+      <c r="AE47" s="31" t="str">
         <f ca="1">VLOOKUP(AD47,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AG47" s="30" t="str">
+      <c r="AG47" s="31" t="str">
         <f ca="1"/>
         <v>São João</v>
       </c>
-      <c r="AH47" s="30" t="str">
+      <c r="AH47" s="31" t="str">
         <f ca="1">VLOOKUP(AG47,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Sem Técnico</v>
       </c>
-      <c r="AJ47" s="30" t="str">
+      <c r="AJ47" s="31" t="str">
         <f ca="1"/>
         <v>São João</v>
       </c>
-      <c r="AK47" s="30" t="str">
+      <c r="AK47" s="31" t="str">
         <f ca="1">VLOOKUP(AJ47,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
     </row>
     <row r="48" spans="30:37">
-      <c r="AD48" s="30" t="str">
+      <c r="AD48" s="31" t="str">
         <f ca="1"/>
         <v>São João Do Caiuá</v>
       </c>
-      <c r="AE48" s="30" t="str">
+      <c r="AE48" s="31" t="str">
         <f ca="1">VLOOKUP(AD48,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AG48" s="30" t="str">
+      <c r="AG48" s="31" t="str">
         <f ca="1"/>
         <v>São João Do Caiuá</v>
       </c>
-      <c r="AH48" s="30" t="str">
+      <c r="AH48" s="31" t="str">
         <f ca="1">VLOOKUP(AG48,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ48" s="30" t="str">
+      <c r="AJ48" s="31" t="str">
         <f ca="1"/>
         <v>São João Do Caiuá</v>
       </c>
-      <c r="AK48" s="30" t="str">
+      <c r="AK48" s="31" t="str">
         <f ca="1">VLOOKUP(AJ48,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
     </row>
     <row r="49" spans="30:37">
-      <c r="AD49" s="30" t="str">
+      <c r="AD49" s="31" t="str">
         <f ca="1"/>
         <v>São João Do Ivaí</v>
       </c>
-      <c r="AE49" s="30" t="str">
+      <c r="AE49" s="31" t="str">
         <f ca="1">VLOOKUP(AD49,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AG49" s="30" t="str">
+      <c r="AG49" s="31" t="str">
         <f ca="1"/>
         <v>São João Do Ivaí</v>
       </c>
-      <c r="AH49" s="30" t="str">
+      <c r="AH49" s="31" t="str">
         <f ca="1">VLOOKUP(AG49,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ49" s="30" t="str">
+      <c r="AJ49" s="31" t="str">
         <f ca="1"/>
         <v>São João Do Ivaí</v>
       </c>
-      <c r="AK49" s="30" t="str">
+      <c r="AK49" s="31" t="str">
         <f ca="1">VLOOKUP(AJ49,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
     </row>
     <row r="50" spans="30:37">
-      <c r="AD50" s="30" t="str">
+      <c r="AD50" s="31" t="str">
         <f ca="1"/>
         <v>São João Do Triunfo</v>
       </c>
-      <c r="AE50" s="30" t="str">
+      <c r="AE50" s="31" t="str">
         <f ca="1">VLOOKUP(AD50,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AG50" s="30" t="str">
+      <c r="AG50" s="31" t="str">
         <f ca="1"/>
         <v>São João Do Triunfo</v>
       </c>
-      <c r="AH50" s="30" t="str">
+      <c r="AH50" s="31" t="str">
         <f ca="1">VLOOKUP(AG50,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Duplicado</v>
       </c>
-      <c r="AJ50" s="30" t="str">
+      <c r="AJ50" s="31" t="str">
         <f ca="1"/>
         <v>São João Do Triunfo</v>
       </c>
-      <c r="AK50" s="30" t="str">
+      <c r="AK50" s="31" t="str">
         <f ca="1">VLOOKUP(AJ50,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Duplicado</v>
       </c>
     </row>
     <row r="51" spans="30:37">
-      <c r="AD51" s="30" t="str">
+      <c r="AD51" s="31" t="str">
         <f ca="1"/>
         <v>Tijucas Do Sul</v>
       </c>
-      <c r="AE51" s="30" t="str">
+      <c r="AE51" s="31" t="str">
         <f ca="1">VLOOKUP(AD51,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AG51" s="30" t="str">
+      <c r="AG51" s="31" t="str">
         <f ca="1"/>
         <v>Tijucas Do Sul</v>
       </c>
-      <c r="AH51" s="30" t="str">
+      <c r="AH51" s="31" t="str">
         <f ca="1">VLOOKUP(AG51,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ51" s="30" t="str">
+      <c r="AJ51" s="31" t="str">
         <f ca="1"/>
         <v>Tijucas Do Sul</v>
       </c>
-      <c r="AK51" s="30" t="str">
+      <c r="AK51" s="31" t="str">
         <f ca="1">VLOOKUP(AJ51,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
@@ -4083,7 +4083,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>18</v>
       </c>
       <c r="B1" s="10" t="s">
@@ -4103,10 +4103,10 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="31" t="s">
         <v>42</v>
       </c>
       <c r="C2" s="13" t="s">
@@ -4180,10 +4180,10 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="31" t="s">
         <v>42</v>
       </c>
       <c r="C3" s="13" t="s">
@@ -4257,10 +4257,10 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="31" t="s">
         <v>42</v>
       </c>
       <c r="C4" s="13" t="s">
@@ -4334,10 +4334,10 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="31" t="s">
         <v>42</v>
       </c>
       <c r="C5" s="13" t="s">
@@ -4411,10 +4411,10 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="31" t="s">
         <v>42</v>
       </c>
       <c r="C6" s="13" t="s">
@@ -4488,10 +4488,10 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="31" t="s">
         <v>48</v>
       </c>
       <c r="C7" s="13" t="s">
@@ -4565,10 +4565,10 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="31" t="s">
         <v>49</v>
       </c>
       <c r="C8" s="13" t="s">
@@ -4642,10 +4642,10 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="31" t="s">
         <v>50</v>
       </c>
       <c r="C9" s="13" t="s">
@@ -4719,10 +4719,10 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="31" t="s">
         <v>51</v>
       </c>
       <c r="C10" s="13" t="s">
@@ -4796,10 +4796,10 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="31" t="s">
         <v>51</v>
       </c>
       <c r="C11" s="13" t="s">
@@ -4873,10 +4873,10 @@
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="31" t="s">
         <v>52</v>
       </c>
       <c r="C12" s="13" t="s">
@@ -4950,10 +4950,10 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="31" t="s">
         <v>53</v>
       </c>
       <c r="C13" s="13" t="s">
@@ -5027,10 +5027,10 @@
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="31" t="s">
         <v>54</v>
       </c>
       <c r="C14" s="13" t="s">
@@ -5104,7 +5104,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A16" s="31" t="s">
+      <c r="A16" s="32" t="s">
         <v>22</v>
       </c>
       <c r="B16" s="10" t="s">
@@ -5124,10 +5124,10 @@
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="31" t="s">
         <v>55</v>
       </c>
       <c r="C17" s="13" t="s">
@@ -5201,10 +5201,10 @@
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="31" t="s">
         <v>56</v>
       </c>
       <c r="C18" s="13" t="s">
@@ -5278,10 +5278,10 @@
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="31" t="s">
         <v>57</v>
       </c>
       <c r="C19" s="13" t="s">
@@ -5355,10 +5355,10 @@
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="31" t="s">
         <v>58</v>
       </c>
       <c r="C20" s="13" t="s">
@@ -5432,10 +5432,10 @@
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="30" t="s">
+      <c r="B21" s="31" t="s">
         <v>21</v>
       </c>
       <c r="C21" s="13" t="s">
@@ -5509,10 +5509,10 @@
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="30" t="s">
+      <c r="B22" s="31" t="s">
         <v>21</v>
       </c>
       <c r="C22" s="13" t="s">
@@ -5586,10 +5586,10 @@
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="30" t="s">
+      <c r="B23" s="31" t="s">
         <v>21</v>
       </c>
       <c r="C23" s="13" t="s">
@@ -5663,10 +5663,10 @@
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="17" t="s">
+      <c r="A24" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="30" t="s">
+      <c r="B24" s="31" t="s">
         <v>59</v>
       </c>
       <c r="C24" s="13" t="s">
@@ -5740,10 +5740,10 @@
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="17" t="s">
+      <c r="A25" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="30" t="s">
+      <c r="B25" s="31" t="s">
         <v>60</v>
       </c>
       <c r="C25" s="13" t="s">
@@ -5817,10 +5817,10 @@
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="17" t="s">
+      <c r="A26" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="30" t="s">
+      <c r="B26" s="31" t="s">
         <v>61</v>
       </c>
       <c r="C26" s="13" t="s">
@@ -5894,7 +5894,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A28" s="32" t="s">
+      <c r="A28" s="33" t="s">
         <v>26</v>
       </c>
       <c r="B28" s="10" t="s">
@@ -5914,10 +5914,10 @@
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="22" t="s">
+      <c r="A29" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="30" t="s">
+      <c r="B29" s="31" t="s">
         <v>62</v>
       </c>
       <c r="C29" s="13" t="s">
@@ -5991,10 +5991,10 @@
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="22" t="s">
+      <c r="A30" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="B30" s="30" t="s">
+      <c r="B30" s="31" t="s">
         <v>63</v>
       </c>
       <c r="C30" s="13" t="s">
@@ -6068,7 +6068,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A32" s="33" t="s">
+      <c r="A32" s="34" t="s">
         <v>29</v>
       </c>
       <c r="B32" s="10" t="s">
@@ -6091,7 +6091,7 @@
       <c r="A33" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B33" s="30" t="s">
+      <c r="B33" s="31" t="s">
         <v>64</v>
       </c>
       <c r="C33" s="13" t="s">
@@ -6168,7 +6168,7 @@
       <c r="A34" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B34" s="30" t="s">
+      <c r="B34" s="31" t="s">
         <v>65</v>
       </c>
       <c r="C34" s="13" t="s">
@@ -6245,7 +6245,7 @@
       <c r="A35" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B35" s="30" t="s">
+      <c r="B35" s="31" t="s">
         <v>66</v>
       </c>
       <c r="C35" s="13" t="s">
@@ -6322,7 +6322,7 @@
       <c r="A36" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B36" s="30" t="s">
+      <c r="B36" s="31" t="s">
         <v>67</v>
       </c>
       <c r="C36" s="13" t="s">
@@ -6399,7 +6399,7 @@
       <c r="A37" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B37" s="30" t="s">
+      <c r="B37" s="31" t="s">
         <v>68</v>
       </c>
       <c r="C37" s="13" t="s">
@@ -6476,7 +6476,7 @@
       <c r="A38" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B38" s="30" t="s">
+      <c r="B38" s="31" t="s">
         <v>69</v>
       </c>
       <c r="C38" s="13" t="s">
@@ -6553,7 +6553,7 @@
       <c r="A39" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B39" s="30" t="s">
+      <c r="B39" s="31" t="s">
         <v>70</v>
       </c>
       <c r="C39" s="13" t="s">
@@ -6627,7 +6627,7 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A41" s="34" t="s">
+      <c r="A41" s="35" t="s">
         <v>31</v>
       </c>
       <c r="B41" s="10" t="s">
@@ -6647,10 +6647,10 @@
       </c>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="18" t="s">
+      <c r="A42" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="B42" s="30" t="s">
+      <c r="B42" s="31" t="s">
         <v>71</v>
       </c>
       <c r="C42" s="13" t="s">
@@ -6724,10 +6724,10 @@
       </c>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="18" t="s">
+      <c r="A43" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="B43" s="30" t="s">
+      <c r="B43" s="31" t="s">
         <v>72</v>
       </c>
       <c r="C43" s="13" t="s">
@@ -6801,10 +6801,10 @@
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="18" t="s">
+      <c r="A44" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="B44" s="30" t="s">
+      <c r="B44" s="31" t="s">
         <v>73</v>
       </c>
       <c r="C44" s="13" t="s">
@@ -6878,10 +6878,10 @@
       </c>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="18" t="s">
+      <c r="A45" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="B45" s="30" t="s">
+      <c r="B45" s="31" t="s">
         <v>74</v>
       </c>
       <c r="C45" s="13" t="s">
@@ -6955,10 +6955,10 @@
       </c>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="18" t="s">
+      <c r="A46" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="B46" s="30" t="s">
+      <c r="B46" s="31" t="s">
         <v>75</v>
       </c>
       <c r="C46" s="13" t="s">
@@ -7032,10 +7032,10 @@
       </c>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="18" t="s">
+      <c r="A47" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="B47" s="30" t="s">
+      <c r="B47" s="31" t="s">
         <v>76</v>
       </c>
       <c r="C47" s="13" t="s">
@@ -7109,10 +7109,10 @@
       </c>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="18" t="s">
+      <c r="A48" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="B48" s="30" t="s">
+      <c r="B48" s="31" t="s">
         <v>77</v>
       </c>
       <c r="C48" s="13" t="s">
@@ -7186,10 +7186,10 @@
       </c>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="18" t="s">
+      <c r="A49" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="B49" s="30" t="s">
+      <c r="B49" s="31" t="s">
         <v>78</v>
       </c>
       <c r="C49" s="13" t="s">
@@ -7263,7 +7263,7 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A51" s="35" t="s">
+      <c r="A51" s="36" t="s">
         <v>33</v>
       </c>
       <c r="B51" s="10" t="s">
@@ -7976,7 +7976,7 @@
       </c>
     </row>
     <row r="62" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A62" s="36" t="s">
+      <c r="A62" s="37" t="s">
         <v>35</v>
       </c>
       <c r="B62" s="10" t="s">
@@ -7996,7 +7996,7 @@
       </c>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="37" t="s">
+      <c r="A63" s="38" t="s">
         <v>34</v>
       </c>
       <c r="B63" s="13" t="s">
@@ -8073,7 +8073,7 @@
       </c>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="37" t="s">
+      <c r="A64" s="38" t="s">
         <v>34</v>
       </c>
       <c r="B64" s="13" t="s">
@@ -8150,7 +8150,7 @@
       </c>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="37" t="s">
+      <c r="A65" s="38" t="s">
         <v>34</v>
       </c>
       <c r="B65" s="13" t="s">
@@ -8227,7 +8227,7 @@
       </c>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="37" t="s">
+      <c r="A66" s="38" t="s">
         <v>34</v>
       </c>
       <c r="B66" s="13" t="s">
@@ -8304,7 +8304,7 @@
       </c>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="37" t="s">
+      <c r="A67" s="38" t="s">
         <v>34</v>
       </c>
       <c r="B67" s="13" t="s">
@@ -8381,7 +8381,7 @@
       </c>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="37" t="s">
+      <c r="A68" s="38" t="s">
         <v>34</v>
       </c>
       <c r="B68" s="13" t="s">
@@ -8458,7 +8458,7 @@
       </c>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="37" t="s">
+      <c r="A69" s="38" t="s">
         <v>34</v>
       </c>
       <c r="B69" s="13" t="s">
@@ -8535,7 +8535,7 @@
       </c>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="37" t="s">
+      <c r="A70" s="38" t="s">
         <v>34</v>
       </c>
       <c r="B70" s="13" t="s">
@@ -8692,7 +8692,7 @@
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="42" t="s">
         <v>34</v>
       </c>
       <c r="B2" s="13" t="s">
@@ -8727,7 +8727,7 @@
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="42" t="s">
         <v>34</v>
       </c>
       <c r="B3" s="13" t="s">
@@ -8799,7 +8799,7 @@
       <c r="D5" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="E5" s="42" t="s">
+      <c r="E5" s="17" t="s">
         <v>5</v>
       </c>
       <c r="F5" s="13" t="s">
@@ -8818,7 +8818,7 @@
       <c r="K5" s="13"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="18" t="s">
         <v>21</v>
       </c>
       <c r="B6" s="13" t="s">
@@ -8882,7 +8882,7 @@
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="19" t="s">
         <v>30</v>
       </c>
       <c r="B8" s="13" t="s">
@@ -8911,7 +8911,7 @@
       <c r="K8" s="13"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="20" t="s">
         <v>28</v>
       </c>
       <c r="B9" s="13" t="s">
@@ -8946,7 +8946,7 @@
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="21" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="13" t="s">
@@ -8975,7 +8975,7 @@
       <c r="K10" s="13"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="21" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="13" t="s">
@@ -9004,7 +9004,7 @@
       <c r="K11" s="13"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="21" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="13" t="s">
@@ -9033,7 +9033,7 @@
       <c r="K12" s="13"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="21" t="s">
         <v>17</v>
       </c>
       <c r="B13" s="13" t="s">
@@ -9062,7 +9062,7 @@
       <c r="K13" s="13"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="21" t="s">
         <v>17</v>
       </c>
       <c r="B14" s="13" t="s">
@@ -9091,7 +9091,7 @@
       <c r="K14" s="13"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="21" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="13" t="s">
@@ -9120,7 +9120,7 @@
       <c r="K15" s="13"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="18" t="s">
         <v>21</v>
       </c>
       <c r="B16" s="13" t="s">
@@ -9149,7 +9149,7 @@
       <c r="K16" s="13"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="21" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="13" t="s">
@@ -9178,7 +9178,7 @@
       <c r="K17" s="13"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="41" t="s">
+      <c r="A18" s="42" t="s">
         <v>34</v>
       </c>
       <c r="B18" s="13" t="s">
@@ -9207,7 +9207,7 @@
       <c r="K18" s="13"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="18" t="s">
         <v>21</v>
       </c>
       <c r="B19" s="13" t="s">
@@ -9225,7 +9225,7 @@
       <c r="F19" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="G19" s="21" t="s">
+      <c r="G19" s="22" t="s">
         <v>117</v>
       </c>
       <c r="H19" s="13"/>
@@ -9236,7 +9236,7 @@
       <c r="K19" s="13"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="41" t="s">
+      <c r="A20" s="42" t="s">
         <v>34</v>
       </c>
       <c r="B20" s="13" t="s">
@@ -9265,7 +9265,7 @@
       <c r="K20" s="13"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="18" t="s">
         <v>21</v>
       </c>
       <c r="B21" s="13" t="s">
@@ -9294,7 +9294,7 @@
       <c r="K21" s="13"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="18" t="s">
         <v>21</v>
       </c>
       <c r="B22" s="13" t="s">
@@ -9323,7 +9323,7 @@
       <c r="K22" s="13"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="18" t="s">
         <v>21</v>
       </c>
       <c r="B23" s="13" t="s">
@@ -9352,7 +9352,7 @@
       <c r="K23" s="13"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="17" t="s">
+      <c r="A24" s="18" t="s">
         <v>21</v>
       </c>
       <c r="B24" s="13" t="s">
@@ -9381,7 +9381,7 @@
       <c r="K24" s="13"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="22" t="s">
+      <c r="A25" s="23" t="s">
         <v>25</v>
       </c>
       <c r="B25" s="13" t="s">
@@ -9410,7 +9410,7 @@
       <c r="K25" s="13"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="18" t="s">
+      <c r="A26" s="19" t="s">
         <v>30</v>
       </c>
       <c r="B26" s="13" t="s">
@@ -9439,7 +9439,7 @@
       <c r="K26" s="13"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="18" t="s">
+      <c r="A27" s="19" t="s">
         <v>30</v>
       </c>
       <c r="B27" s="13" t="s">
@@ -9468,7 +9468,7 @@
       <c r="K27" s="13"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="18" t="s">
+      <c r="A28" s="19" t="s">
         <v>30</v>
       </c>
       <c r="B28" s="13" t="s">
@@ -9557,7 +9557,7 @@
       <c r="K30" s="13"/>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="20" t="s">
+      <c r="A31" s="21" t="s">
         <v>17</v>
       </c>
       <c r="B31" s="13" t="s">
@@ -9586,7 +9586,7 @@
       <c r="K31" s="13"/>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="19" t="s">
+      <c r="A32" s="20" t="s">
         <v>28</v>
       </c>
       <c r="B32" s="13" t="s">
@@ -9615,7 +9615,7 @@
       <c r="K32" s="13"/>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="41" t="s">
+      <c r="A33" s="42" t="s">
         <v>34</v>
       </c>
       <c r="B33" s="13" t="s">
@@ -9685,7 +9685,7 @@
       </c>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="17" t="s">
+      <c r="A35" s="18" t="s">
         <v>21</v>
       </c>
       <c r="B35" s="13" t="s">
@@ -9714,7 +9714,7 @@
       <c r="K35" s="13"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="19" t="s">
+      <c r="A36" s="20" t="s">
         <v>28</v>
       </c>
       <c r="B36" s="13" t="s">
@@ -9772,7 +9772,7 @@
       <c r="K37" s="13"/>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="18" t="s">
+      <c r="A38" s="19" t="s">
         <v>30</v>
       </c>
       <c r="B38" s="13" t="s">
@@ -9801,7 +9801,7 @@
       <c r="K38" s="13"/>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="19" t="s">
+      <c r="A39" s="20" t="s">
         <v>28</v>
       </c>
       <c r="B39" s="13" t="s">
@@ -9836,7 +9836,7 @@
       </c>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="41" t="s">
+      <c r="A40" s="42" t="s">
         <v>34</v>
       </c>
       <c r="B40" s="13" t="s">
@@ -9894,7 +9894,7 @@
       <c r="K41" s="13"/>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="19" t="s">
+      <c r="A42" s="20" t="s">
         <v>28</v>
       </c>
       <c r="B42" s="13" t="s">
@@ -9923,7 +9923,7 @@
       <c r="K42" s="13"/>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="17" t="s">
+      <c r="A43" s="18" t="s">
         <v>21</v>
       </c>
       <c r="B43" s="13" t="s">
@@ -9952,7 +9952,7 @@
       <c r="K43" s="13"/>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="22" t="s">
+      <c r="A44" s="23" t="s">
         <v>25</v>
       </c>
       <c r="B44" s="13" t="s">
@@ -9981,7 +9981,7 @@
       <c r="K44" s="13"/>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="18" t="s">
+      <c r="A45" s="19" t="s">
         <v>30</v>
       </c>
       <c r="B45" s="13" t="s">
@@ -10010,7 +10010,7 @@
       <c r="K45" s="13"/>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" s="20" t="s">
+      <c r="A46" s="21" t="s">
         <v>17</v>
       </c>
       <c r="B46" s="13" t="s">
@@ -10039,7 +10039,7 @@
       <c r="K46" s="13"/>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="20" t="s">
+      <c r="A47" s="21" t="s">
         <v>17</v>
       </c>
       <c r="B47" s="13" t="s">
@@ -10068,7 +10068,7 @@
       <c r="K47" s="13"/>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="20" t="s">
+      <c r="A48" s="21" t="s">
         <v>17</v>
       </c>
       <c r="B48" s="13" t="s">
@@ -10103,7 +10103,7 @@
       </c>
     </row>
     <row r="49" spans="1:11">
-      <c r="A49" s="17" t="s">
+      <c r="A49" s="18" t="s">
         <v>21</v>
       </c>
       <c r="B49" s="13" t="s">
@@ -10132,7 +10132,7 @@
       <c r="K49" s="13"/>
     </row>
     <row r="50" spans="1:11">
-      <c r="A50" s="19" t="s">
+      <c r="A50" s="20" t="s">
         <v>28</v>
       </c>
       <c r="B50" s="13" t="s">
@@ -10167,7 +10167,7 @@
       </c>
     </row>
     <row r="51" spans="1:11">
-      <c r="A51" s="18" t="s">
+      <c r="A51" s="19" t="s">
         <v>30</v>
       </c>
       <c r="B51" s="13" t="s">
@@ -10196,7 +10196,7 @@
       <c r="K51" s="13"/>
     </row>
     <row r="52" spans="1:11">
-      <c r="A52" s="41" t="s">
+      <c r="A52" s="42" t="s">
         <v>34</v>
       </c>
       <c r="B52" s="13" t="s">
@@ -10225,7 +10225,7 @@
       <c r="K52" s="13"/>
     </row>
     <row r="53" spans="1:11">
-      <c r="A53" s="18" t="s">
+      <c r="A53" s="19" t="s">
         <v>30</v>
       </c>
       <c r="B53" s="13" t="s">
@@ -10254,7 +10254,7 @@
       <c r="K53" s="13"/>
     </row>
     <row r="54" spans="1:11">
-      <c r="A54" s="19" t="s">
+      <c r="A54" s="20" t="s">
         <v>28</v>
       </c>
       <c r="B54" s="13" t="s">
@@ -10270,7 +10270,7 @@
       <c r="F54" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="G54" s="21" t="s">
+      <c r="G54" s="22" t="s">
         <v>117</v>
       </c>
       <c r="H54" s="13"/>
@@ -10281,7 +10281,7 @@
       <c r="K54" s="13"/>
     </row>
     <row r="55" spans="1:11">
-      <c r="A55" s="41" t="s">
+      <c r="A55" s="42" t="s">
         <v>34</v>
       </c>
       <c r="B55" s="13" t="s">
@@ -10343,7 +10343,7 @@
       <c r="K56" s="13"/>
     </row>
     <row r="57" spans="1:11">
-      <c r="A57" s="20" t="s">
+      <c r="A57" s="21" t="s">
         <v>17</v>
       </c>
       <c r="B57" s="13" t="s">
@@ -10372,7 +10372,7 @@
       <c r="K57" s="13"/>
     </row>
     <row r="58" spans="1:11">
-      <c r="A58" s="20" t="s">
+      <c r="A58" s="21" t="s">
         <v>17</v>
       </c>
       <c r="B58" s="13" t="s">
@@ -10519,7 +10519,7 @@
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="42" t="s">
         <v>34</v>
       </c>
       <c r="B2" s="13" t="s">
@@ -10538,7 +10538,7 @@
       <c r="F2" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="22" t="s">
         <v>117</v>
       </c>
       <c r="H2" s="13" t="s">
@@ -10555,7 +10555,7 @@
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="42" t="s">
         <v>34</v>
       </c>
       <c r="B3" s="13" t="s">
@@ -10628,13 +10628,13 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B5&amp;C5, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B5&amp;C5, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Vagner Perseti Alves</v>
       </c>
-      <c r="E5" s="42" t="s">
+      <c r="E5" s="17" t="s">
         <v>5</v>
       </c>
       <c r="F5" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="G5" s="21" t="s">
+      <c r="G5" s="22" t="s">
         <v>117</v>
       </c>
       <c r="H5" s="13" t="s">
@@ -10651,7 +10651,7 @@
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="18" t="s">
         <v>21</v>
       </c>
       <c r="B6" s="13" t="s">
@@ -10711,7 +10711,7 @@
       <c r="K7" s="13"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="19" t="s">
         <v>30</v>
       </c>
       <c r="B8" s="13" t="s">
@@ -10741,7 +10741,7 @@
       <c r="K8" s="13"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="20" t="s">
         <v>28</v>
       </c>
       <c r="B9" s="13" t="s">
@@ -10771,7 +10771,7 @@
       <c r="K9" s="13"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="21" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="13" t="s">
@@ -10801,7 +10801,7 @@
       <c r="K10" s="13"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="21" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="13" t="s">
@@ -10831,7 +10831,7 @@
       <c r="K11" s="13"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="21" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="13" t="s">
@@ -10861,7 +10861,7 @@
       <c r="K12" s="13"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="21" t="s">
         <v>17</v>
       </c>
       <c r="B13" s="13" t="s">
@@ -10891,7 +10891,7 @@
       <c r="K13" s="13"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="21" t="s">
         <v>17</v>
       </c>
       <c r="B14" s="13" t="s">
@@ -10921,7 +10921,7 @@
       <c r="K14" s="13"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="21" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="13" t="s">
@@ -10951,7 +10951,7 @@
       <c r="K15" s="13"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="18" t="s">
         <v>21</v>
       </c>
       <c r="B16" s="13" t="s">
@@ -10964,13 +10964,13 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B16&amp;C16, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B16&amp;C16, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Anandra da Silva</v>
       </c>
-      <c r="E16" s="42" t="s">
+      <c r="E16" s="17" t="s">
         <v>5</v>
       </c>
       <c r="F16" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="G16" s="21" t="s">
+      <c r="G16" s="22" t="s">
         <v>117</v>
       </c>
       <c r="H16" s="13"/>
@@ -10981,7 +10981,7 @@
       <c r="K16" s="13"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="21" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="13" t="s">
@@ -11011,7 +11011,7 @@
       <c r="K17" s="13"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="41" t="s">
+      <c r="A18" s="42" t="s">
         <v>34</v>
       </c>
       <c r="B18" s="13" t="s">
@@ -11043,7 +11043,7 @@
       <c r="K18" s="13"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="18" t="s">
         <v>21</v>
       </c>
       <c r="B19" s="13" t="s">
@@ -11062,7 +11062,7 @@
       <c r="F19" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="G19" s="21" t="s">
+      <c r="G19" s="22" t="s">
         <v>117</v>
       </c>
       <c r="H19" s="13"/>
@@ -11073,7 +11073,7 @@
       <c r="K19" s="13"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="41" t="s">
+      <c r="A20" s="42" t="s">
         <v>34</v>
       </c>
       <c r="B20" s="13" t="s">
@@ -11103,7 +11103,7 @@
       <c r="K20" s="13"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="18" t="s">
         <v>21</v>
       </c>
       <c r="B21" s="13" t="s">
@@ -11116,13 +11116,13 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B21&amp;C21, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B21&amp;C21, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Augusto Cesar Nunes</v>
       </c>
-      <c r="E21" s="42" t="s">
+      <c r="E21" s="17" t="s">
         <v>5</v>
       </c>
       <c r="F21" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="G21" s="21" t="s">
+      <c r="G21" s="22" t="s">
         <v>117</v>
       </c>
       <c r="H21" s="13" t="s">
@@ -11135,7 +11135,7 @@
       <c r="K21" s="13"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="18" t="s">
         <v>21</v>
       </c>
       <c r="B22" s="13" t="s">
@@ -11148,13 +11148,13 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B22&amp;C22, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B22&amp;C22, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Amanda Cristina Beal Acosta</v>
       </c>
-      <c r="E22" s="42" t="s">
+      <c r="E22" s="17" t="s">
         <v>5</v>
       </c>
       <c r="F22" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="G22" s="21" t="s">
+      <c r="G22" s="22" t="s">
         <v>117</v>
       </c>
       <c r="H22" s="13"/>
@@ -11165,7 +11165,7 @@
       <c r="K22" s="13"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="18" t="s">
         <v>21</v>
       </c>
       <c r="B23" s="13" t="s">
@@ -11195,7 +11195,7 @@
       <c r="K23" s="13"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="17" t="s">
+      <c r="A24" s="18" t="s">
         <v>21</v>
       </c>
       <c r="B24" s="13" t="s">
@@ -11225,7 +11225,7 @@
       <c r="K24" s="13"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="22" t="s">
+      <c r="A25" s="23" t="s">
         <v>25</v>
       </c>
       <c r="B25" s="13" t="s">
@@ -11261,7 +11261,7 @@
       </c>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="18" t="s">
+      <c r="A26" s="19" t="s">
         <v>30</v>
       </c>
       <c r="B26" s="13" t="s">
@@ -11291,7 +11291,7 @@
       <c r="K26" s="13"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="18" t="s">
+      <c r="A27" s="19" t="s">
         <v>30</v>
       </c>
       <c r="B27" s="13" t="s">
@@ -11321,7 +11321,7 @@
       <c r="K27" s="13"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="18" t="s">
+      <c r="A28" s="19" t="s">
         <v>30</v>
       </c>
       <c r="B28" s="13" t="s">
@@ -11417,7 +11417,7 @@
       <c r="K30" s="13"/>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="20" t="s">
+      <c r="A31" s="21" t="s">
         <v>17</v>
       </c>
       <c r="B31" s="13" t="s">
@@ -11447,7 +11447,7 @@
       <c r="K31" s="13"/>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="19" t="s">
+      <c r="A32" s="20" t="s">
         <v>28</v>
       </c>
       <c r="B32" s="13" t="s">
@@ -11477,7 +11477,7 @@
       <c r="K32" s="13"/>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="41" t="s">
+      <c r="A33" s="42" t="s">
         <v>34</v>
       </c>
       <c r="B33" s="13" t="s">
@@ -11543,7 +11543,7 @@
       </c>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="17" t="s">
+      <c r="A35" s="18" t="s">
         <v>21</v>
       </c>
       <c r="B35" s="13" t="s">
@@ -11573,7 +11573,7 @@
       <c r="K35" s="13"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="19" t="s">
+      <c r="A36" s="20" t="s">
         <v>28</v>
       </c>
       <c r="B36" s="13" t="s">
@@ -11639,7 +11639,7 @@
       <c r="K37" s="13"/>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="18" t="s">
+      <c r="A38" s="19" t="s">
         <v>30</v>
       </c>
       <c r="B38" s="13" t="s">
@@ -11669,7 +11669,7 @@
       <c r="K38" s="13"/>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="19" t="s">
+      <c r="A39" s="20" t="s">
         <v>28</v>
       </c>
       <c r="B39" s="13" t="s">
@@ -11682,7 +11682,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B39&amp;C39, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B39&amp;C39, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Aramis Vinicius de Paula Oliveira</v>
       </c>
-      <c r="E39" s="42" t="s">
+      <c r="E39" s="17" t="s">
         <v>5</v>
       </c>
       <c r="F39" s="13" t="s">
@@ -11699,7 +11699,7 @@
       <c r="K39" s="13"/>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="41" t="s">
+      <c r="A40" s="42" t="s">
         <v>34</v>
       </c>
       <c r="B40" s="13" t="s">
@@ -11767,7 +11767,7 @@
       </c>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="19" t="s">
+      <c r="A42" s="20" t="s">
         <v>28</v>
       </c>
       <c r="B42" s="13" t="s">
@@ -11797,7 +11797,7 @@
       <c r="K42" s="13"/>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="17" t="s">
+      <c r="A43" s="18" t="s">
         <v>21</v>
       </c>
       <c r="B43" s="13" t="s">
@@ -11827,7 +11827,7 @@
       <c r="K43" s="13"/>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="22" t="s">
+      <c r="A44" s="23" t="s">
         <v>25</v>
       </c>
       <c r="B44" s="13" t="s">
@@ -11857,7 +11857,7 @@
       <c r="K44" s="13"/>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="18" t="s">
+      <c r="A45" s="19" t="s">
         <v>30</v>
       </c>
       <c r="B45" s="13" t="s">
@@ -11887,7 +11887,7 @@
       <c r="K45" s="13"/>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" s="20" t="s">
+      <c r="A46" s="21" t="s">
         <v>17</v>
       </c>
       <c r="B46" s="13" t="s">
@@ -11917,7 +11917,7 @@
       <c r="K46" s="13"/>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="20" t="s">
+      <c r="A47" s="21" t="s">
         <v>17</v>
       </c>
       <c r="B47" s="13" t="s">
@@ -11947,7 +11947,7 @@
       <c r="K47" s="13"/>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="20" t="s">
+      <c r="A48" s="21" t="s">
         <v>17</v>
       </c>
       <c r="B48" s="13" t="s">
@@ -11977,7 +11977,7 @@
       <c r="K48" s="13"/>
     </row>
     <row r="49" spans="1:11">
-      <c r="A49" s="17" t="s">
+      <c r="A49" s="18" t="s">
         <v>21</v>
       </c>
       <c r="B49" s="13" t="s">
@@ -12007,7 +12007,7 @@
       <c r="K49" s="13"/>
     </row>
     <row r="50" spans="1:11">
-      <c r="A50" s="19" t="s">
+      <c r="A50" s="20" t="s">
         <v>28</v>
       </c>
       <c r="B50" s="13" t="s">
@@ -12032,7 +12032,7 @@
       <c r="H50" s="13" t="s">
         <v>249</v>
       </c>
-      <c r="I50" s="23" t="s">
+      <c r="I50" s="24" t="s">
         <v>250</v>
       </c>
       <c r="J50" s="13" t="s">
@@ -12043,7 +12043,7 @@
       </c>
     </row>
     <row r="51" spans="1:11">
-      <c r="A51" s="18" t="s">
+      <c r="A51" s="19" t="s">
         <v>30</v>
       </c>
       <c r="B51" s="13" t="s">
@@ -12073,7 +12073,7 @@
       <c r="K51" s="13"/>
     </row>
     <row r="52" spans="1:11">
-      <c r="A52" s="41" t="s">
+      <c r="A52" s="42" t="s">
         <v>34</v>
       </c>
       <c r="B52" s="13" t="s">
@@ -12105,7 +12105,7 @@
       <c r="K52" s="13"/>
     </row>
     <row r="53" spans="1:11">
-      <c r="A53" s="18" t="s">
+      <c r="A53" s="19" t="s">
         <v>30</v>
       </c>
       <c r="B53" s="13" t="s">
@@ -12135,7 +12135,7 @@
       <c r="K53" s="13"/>
     </row>
     <row r="54" spans="1:11">
-      <c r="A54" s="19" t="s">
+      <c r="A54" s="20" t="s">
         <v>28</v>
       </c>
       <c r="B54" s="13" t="s">
@@ -12148,11 +12148,11 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B54&amp;C54, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B54&amp;C54, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E54" s="24" t="s">
+      <c r="E54" s="25" t="s">
         <v>4</v>
       </c>
       <c r="F54" s="13"/>
-      <c r="G54" s="21" t="s">
+      <c r="G54" s="22" t="s">
         <v>117</v>
       </c>
       <c r="H54" s="13"/>
@@ -12163,7 +12163,7 @@
       <c r="K54" s="13"/>
     </row>
     <row r="55" spans="1:11">
-      <c r="A55" s="41" t="s">
+      <c r="A55" s="42" t="s">
         <v>34</v>
       </c>
       <c r="B55" s="13" t="s">
@@ -12233,7 +12233,7 @@
       </c>
     </row>
     <row r="57" spans="1:11">
-      <c r="A57" s="20" t="s">
+      <c r="A57" s="21" t="s">
         <v>17</v>
       </c>
       <c r="B57" s="13" t="s">
@@ -12246,7 +12246,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B57&amp;C57, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B57&amp;C57, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Fernanda Naiara Voinarski</v>
       </c>
-      <c r="E57" s="42" t="s">
+      <c r="E57" s="17" t="s">
         <v>5</v>
       </c>
       <c r="F57" s="13" t="s">
@@ -12263,7 +12263,7 @@
       <c r="K57" s="13"/>
     </row>
     <row r="58" spans="1:11">
-      <c r="A58" s="20" t="s">
+      <c r="A58" s="21" t="s">
         <v>17</v>
       </c>
       <c r="B58" s="13" t="s">
@@ -12410,7 +12410,7 @@
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="42" t="s">
         <v>34</v>
       </c>
       <c r="B2" s="13" t="s">
@@ -12446,7 +12446,7 @@
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="42" t="s">
         <v>34</v>
       </c>
       <c r="B3" s="13" t="s">
@@ -12521,13 +12521,13 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B5&amp;C5, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B5&amp;C5, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Vagner Perseti Alves</v>
       </c>
-      <c r="E5" s="42" t="s">
+      <c r="E5" s="17" t="s">
         <v>5</v>
       </c>
       <c r="F5" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="G5" s="21" t="s">
+      <c r="G5" s="22" t="s">
         <v>117</v>
       </c>
       <c r="H5" s="13"/>
@@ -12538,7 +12538,7 @@
       <c r="K5" s="13"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="18" t="s">
         <v>21</v>
       </c>
       <c r="B6" s="13" t="s">
@@ -12598,7 +12598,7 @@
       <c r="K7" s="13"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="19" t="s">
         <v>30</v>
       </c>
       <c r="B8" s="13" t="s">
@@ -12628,7 +12628,7 @@
       <c r="K8" s="13"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="20" t="s">
         <v>28</v>
       </c>
       <c r="B9" s="13" t="s">
@@ -12658,7 +12658,7 @@
       <c r="K9" s="13"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="21" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="13" t="s">
@@ -12688,7 +12688,7 @@
       <c r="K10" s="13"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="21" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="13" t="s">
@@ -12718,7 +12718,7 @@
       <c r="K11" s="13"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="21" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="13" t="s">
@@ -12748,7 +12748,7 @@
       <c r="K12" s="13"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="21" t="s">
         <v>17</v>
       </c>
       <c r="B13" s="13" t="s">
@@ -12778,7 +12778,7 @@
       <c r="K13" s="13"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="21" t="s">
         <v>17</v>
       </c>
       <c r="B14" s="13" t="s">
@@ -12808,7 +12808,7 @@
       <c r="K14" s="13"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="21" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="13" t="s">
@@ -12838,7 +12838,7 @@
       <c r="K15" s="13"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="18" t="s">
         <v>21</v>
       </c>
       <c r="B16" s="13" t="s">
@@ -12851,13 +12851,13 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B16&amp;C16, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B16&amp;C16, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Anandra da Silva</v>
       </c>
-      <c r="E16" s="42" t="s">
+      <c r="E16" s="17" t="s">
         <v>5</v>
       </c>
       <c r="F16" s="13" t="s">
         <v>267</v>
       </c>
-      <c r="G16" s="21" t="s">
+      <c r="G16" s="22" t="s">
         <v>117</v>
       </c>
       <c r="H16" s="13"/>
@@ -12868,7 +12868,7 @@
       <c r="K16" s="13"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="21" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="13" t="s">
@@ -12904,7 +12904,7 @@
       </c>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="41" t="s">
+      <c r="A18" s="42" t="s">
         <v>34</v>
       </c>
       <c r="B18" s="13" t="s">
@@ -12934,7 +12934,7 @@
       <c r="K18" s="13"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="18" t="s">
         <v>21</v>
       </c>
       <c r="B19" s="13" t="s">
@@ -12947,13 +12947,13 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B19&amp;C19, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B19&amp;C19, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Tássia Castelli</v>
       </c>
-      <c r="E19" s="42" t="s">
+      <c r="E19" s="17" t="s">
         <v>5</v>
       </c>
       <c r="F19" s="13" t="s">
         <v>271</v>
       </c>
-      <c r="G19" s="21" t="s">
+      <c r="G19" s="22" t="s">
         <v>117</v>
       </c>
       <c r="H19" s="13"/>
@@ -12964,7 +12964,7 @@
       <c r="K19" s="13"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="41" t="s">
+      <c r="A20" s="42" t="s">
         <v>34</v>
       </c>
       <c r="B20" s="13" t="s">
@@ -12994,7 +12994,7 @@
       <c r="K20" s="13"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="18" t="s">
         <v>21</v>
       </c>
       <c r="B21" s="13" t="s">
@@ -13007,13 +13007,13 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B21&amp;C21, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B21&amp;C21, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Augusto Cesar Nunes</v>
       </c>
-      <c r="E21" s="42" t="s">
+      <c r="E21" s="17" t="s">
         <v>5</v>
       </c>
       <c r="F21" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="G21" s="21" t="s">
+      <c r="G21" s="22" t="s">
         <v>117</v>
       </c>
       <c r="H21" s="13" t="s">
@@ -13026,7 +13026,7 @@
       <c r="K21" s="13"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="18" t="s">
         <v>21</v>
       </c>
       <c r="B22" s="13" t="s">
@@ -13056,7 +13056,7 @@
       <c r="K22" s="13"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="18" t="s">
         <v>21</v>
       </c>
       <c r="B23" s="13" t="s">
@@ -13086,7 +13086,7 @@
       <c r="K23" s="13"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="17" t="s">
+      <c r="A24" s="18" t="s">
         <v>21</v>
       </c>
       <c r="B24" s="13" t="s">
@@ -13116,7 +13116,7 @@
       <c r="K24" s="13"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="22" t="s">
+      <c r="A25" s="23" t="s">
         <v>25</v>
       </c>
       <c r="B25" s="13" t="s">
@@ -13146,7 +13146,7 @@
       <c r="K25" s="13"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="18" t="s">
+      <c r="A26" s="19" t="s">
         <v>30</v>
       </c>
       <c r="B26" s="13" t="s">
@@ -13176,7 +13176,7 @@
       <c r="K26" s="13"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="18" t="s">
+      <c r="A27" s="19" t="s">
         <v>30</v>
       </c>
       <c r="B27" s="13" t="s">
@@ -13206,7 +13206,7 @@
       <c r="K27" s="13"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="18" t="s">
+      <c r="A28" s="19" t="s">
         <v>30</v>
       </c>
       <c r="B28" s="13" t="s">
@@ -13296,7 +13296,7 @@
       <c r="K30" s="13"/>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="20" t="s">
+      <c r="A31" s="21" t="s">
         <v>17</v>
       </c>
       <c r="B31" s="13" t="s">
@@ -13326,7 +13326,7 @@
       <c r="K31" s="13"/>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="19" t="s">
+      <c r="A32" s="20" t="s">
         <v>28</v>
       </c>
       <c r="B32" s="13" t="s">
@@ -13356,7 +13356,7 @@
       <c r="K32" s="13"/>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="41" t="s">
+      <c r="A33" s="42" t="s">
         <v>34</v>
       </c>
       <c r="B33" s="13" t="s">
@@ -13422,7 +13422,7 @@
       </c>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="17" t="s">
+      <c r="A35" s="18" t="s">
         <v>21</v>
       </c>
       <c r="B35" s="13" t="s">
@@ -13456,7 +13456,7 @@
       </c>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="19" t="s">
+      <c r="A36" s="20" t="s">
         <v>28</v>
       </c>
       <c r="B36" s="13" t="s">
@@ -13520,7 +13520,7 @@
       </c>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="18" t="s">
+      <c r="A38" s="19" t="s">
         <v>30</v>
       </c>
       <c r="B38" s="13" t="s">
@@ -13550,7 +13550,7 @@
       <c r="K38" s="13"/>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="19" t="s">
+      <c r="A39" s="20" t="s">
         <v>28</v>
       </c>
       <c r="B39" s="13" t="s">
@@ -13580,7 +13580,7 @@
       <c r="K39" s="13"/>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="41" t="s">
+      <c r="A40" s="42" t="s">
         <v>34</v>
       </c>
       <c r="B40" s="13" t="s">
@@ -13640,7 +13640,7 @@
       <c r="K41" s="13"/>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="19" t="s">
+      <c r="A42" s="20" t="s">
         <v>28</v>
       </c>
       <c r="B42" s="13" t="s">
@@ -13670,7 +13670,7 @@
       <c r="K42" s="13"/>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="17" t="s">
+      <c r="A43" s="18" t="s">
         <v>21</v>
       </c>
       <c r="B43" s="13" t="s">
@@ -13700,7 +13700,7 @@
       <c r="K43" s="13"/>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="22" t="s">
+      <c r="A44" s="23" t="s">
         <v>25</v>
       </c>
       <c r="B44" s="13" t="s">
@@ -13730,7 +13730,7 @@
       <c r="K44" s="13"/>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="18" t="s">
+      <c r="A45" s="19" t="s">
         <v>30</v>
       </c>
       <c r="B45" s="13" t="s">
@@ -13760,7 +13760,7 @@
       <c r="K45" s="13"/>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" s="20" t="s">
+      <c r="A46" s="21" t="s">
         <v>17</v>
       </c>
       <c r="B46" s="13" t="s">
@@ -13790,7 +13790,7 @@
       <c r="K46" s="13"/>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="20" t="s">
+      <c r="A47" s="21" t="s">
         <v>17</v>
       </c>
       <c r="B47" s="13" t="s">
@@ -13822,7 +13822,7 @@
       <c r="K47" s="13"/>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="20" t="s">
+      <c r="A48" s="21" t="s">
         <v>17</v>
       </c>
       <c r="B48" s="13" t="s">
@@ -13835,13 +13835,13 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B48&amp;C48, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B48&amp;C48, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Jean Eriksen de Miranda</v>
       </c>
-      <c r="E48" s="42" t="s">
+      <c r="E48" s="17" t="s">
         <v>5</v>
       </c>
       <c r="F48" s="13" t="s">
         <v>284</v>
       </c>
-      <c r="G48" s="21" t="s">
+      <c r="G48" s="22" t="s">
         <v>117</v>
       </c>
       <c r="H48" s="13"/>
@@ -13852,7 +13852,7 @@
       <c r="K48" s="13"/>
     </row>
     <row r="49" spans="1:11">
-      <c r="A49" s="17" t="s">
+      <c r="A49" s="18" t="s">
         <v>21</v>
       </c>
       <c r="B49" s="13" t="s">
@@ -13882,7 +13882,7 @@
       <c r="K49" s="13"/>
     </row>
     <row r="50" spans="1:11">
-      <c r="A50" s="19" t="s">
+      <c r="A50" s="20" t="s">
         <v>28</v>
       </c>
       <c r="B50" s="13" t="s">
@@ -13912,7 +13912,7 @@
       <c r="K50" s="13"/>
     </row>
     <row r="51" spans="1:11">
-      <c r="A51" s="18" t="s">
+      <c r="A51" s="19" t="s">
         <v>30</v>
       </c>
       <c r="B51" s="13" t="s">
@@ -13942,7 +13942,7 @@
       <c r="K51" s="13"/>
     </row>
     <row r="52" spans="1:11">
-      <c r="A52" s="41" t="s">
+      <c r="A52" s="42" t="s">
         <v>34</v>
       </c>
       <c r="B52" s="13" t="s">
@@ -13972,7 +13972,7 @@
       <c r="K52" s="13"/>
     </row>
     <row r="53" spans="1:11">
-      <c r="A53" s="18" t="s">
+      <c r="A53" s="19" t="s">
         <v>30</v>
       </c>
       <c r="B53" s="13" t="s">
@@ -14002,7 +14002,7 @@
       <c r="K53" s="13"/>
     </row>
     <row r="54" spans="1:11">
-      <c r="A54" s="19" t="s">
+      <c r="A54" s="20" t="s">
         <v>28</v>
       </c>
       <c r="B54" s="13" t="s">
@@ -14021,7 +14021,7 @@
       <c r="F54" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="G54" s="21" t="s">
+      <c r="G54" s="22" t="s">
         <v>117</v>
       </c>
       <c r="H54" s="13"/>
@@ -14032,7 +14032,7 @@
       <c r="K54" s="13"/>
     </row>
     <row r="55" spans="1:11">
-      <c r="A55" s="41" t="s">
+      <c r="A55" s="42" t="s">
         <v>34</v>
       </c>
       <c r="B55" s="13" t="s">
@@ -14096,7 +14096,7 @@
       <c r="K56" s="13"/>
     </row>
     <row r="57" spans="1:11">
-      <c r="A57" s="20" t="s">
+      <c r="A57" s="21" t="s">
         <v>17</v>
       </c>
       <c r="B57" s="13" t="s">
@@ -14109,13 +14109,13 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B57&amp;C57, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B57&amp;C57, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Fernanda Naiara Voinarski</v>
       </c>
-      <c r="E57" s="42" t="s">
+      <c r="E57" s="17" t="s">
         <v>5</v>
       </c>
       <c r="F57" s="13" t="s">
         <v>287</v>
       </c>
-      <c r="G57" s="21" t="s">
+      <c r="G57" s="22" t="s">
         <v>117</v>
       </c>
       <c r="H57" s="13" t="s">
@@ -14132,7 +14132,7 @@
       </c>
     </row>
     <row r="58" spans="1:11">
-      <c r="A58" s="20" t="s">
+      <c r="A58" s="21" t="s">
         <v>17</v>
       </c>
       <c r="B58" s="13" t="s">
